--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/TRX/trx-institutional.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/TRX/trx-institutional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\TRX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6096374-1DD7-4D41-9479-50ADB912CE34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465221C1-1014-4AC6-B056-840FB0876D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,6 +425,7 @@
     <font>
       <sz val="9"/>
       <name val="Univers LT Std 47 Cn Lt"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -751,12 +752,6 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -767,6 +762,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -6959,7 +6960,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$236</c:f>
+              <c:f>[3]Data!$A$3:$A$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="234"/>
@@ -7670,7 +7671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$D$3:$D$236</c:f>
+              <c:f>[3]Data!$D$3:$D$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="234"/>
@@ -8391,7 +8392,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Data!$C$2</c:f>
+              <c:f>[3]Data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8414,7 +8415,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Data!$A$3:$A$236</c:f>
+              <c:f>[3]Data!$A$3:$A$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="234"/>
@@ -9125,7 +9126,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Data!$E$3:$E$236</c:f>
+              <c:f>[3]Data!$E$3:$E$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="234"/>
@@ -10053,7 +10054,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[3]Data!$A$3:$A$239</c:f>
+              <c:f>[1]Data!$A$3:$A$239</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="237"/>
@@ -10773,7 +10774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Data!$E$3:$E$239</c:f>
+              <c:f>[1]Data!$E$3:$E$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="237"/>
@@ -11503,7 +11504,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]Data!$D$2</c:f>
+              <c:f>[1]Data!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11526,7 +11527,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[3]Data!$A$3:$A$239</c:f>
+              <c:f>[1]Data!$A$3:$A$239</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="237"/>
@@ -12246,7 +12247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Data!$G$3:$G$239</c:f>
+              <c:f>[1]Data!$G$3:$G$239</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="237"/>
@@ -15526,7 +15527,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
-          <cell r="C2" t="str">
+          <cell r="D2" t="str">
             <v>50% MSCI ACWI/50% ML A-AAA 1-3yr US Corp.</v>
           </cell>
         </row>
@@ -15534,10 +15535,10 @@
           <cell r="A3">
             <v>37103</v>
           </cell>
-          <cell r="D3">
+          <cell r="E3">
             <v>10000</v>
           </cell>
-          <cell r="E3">
+          <cell r="G3">
             <v>10000</v>
           </cell>
         </row>
@@ -15545,10 +15546,10 @@
           <cell r="A4">
             <v>37134</v>
           </cell>
-          <cell r="D4">
+          <cell r="E4">
             <v>9591</v>
           </cell>
-          <cell r="E4">
+          <cell r="G4">
             <v>9723</v>
           </cell>
         </row>
@@ -15556,43 +15557,97 @@
           <cell r="A5">
             <v>37164</v>
           </cell>
-          <cell r="D5">
+          <cell r="E5">
             <v>9227.5010999999995</v>
           </cell>
-          <cell r="E5">
+          <cell r="G5">
             <v>9395.3348999999998</v>
+          </cell>
+          <cell r="P5">
+            <v>5.0725442038000113</v>
+          </cell>
+          <cell r="Q5">
+            <v>28.166479824555335</v>
+          </cell>
+          <cell r="R5">
+            <v>6.4368659234335102</v>
+          </cell>
+          <cell r="S5">
+            <v>6.7350277001640313</v>
+          </cell>
+          <cell r="T5">
+            <v>6.2240761092679842</v>
+          </cell>
+          <cell r="U5">
+            <v>6.2274114039540418</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
             <v>37195</v>
           </cell>
-          <cell r="D6">
+          <cell r="E6">
             <v>9477.5663798099977</v>
           </cell>
-          <cell r="E6">
+          <cell r="G6">
             <v>9532.5067895399989</v>
+          </cell>
+          <cell r="P6">
+            <v>4.4493497863999698</v>
+          </cell>
+          <cell r="Q6">
+            <v>25.483631091260396</v>
+          </cell>
+          <cell r="R6">
+            <v>5.7771408245477218</v>
+          </cell>
+          <cell r="S6">
+            <v>6.4524214189570772</v>
+          </cell>
+          <cell r="T6">
+            <v>4.9563676515188781</v>
+          </cell>
+          <cell r="U6">
+            <v>4.4401197769886158</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
             <v>37225</v>
           </cell>
-          <cell r="D7">
+          <cell r="E7">
             <v>9890.7882739697143</v>
           </cell>
-          <cell r="E7">
+          <cell r="G7">
             <v>9896.6485489004262</v>
+          </cell>
+          <cell r="P7">
+            <v>2.3004470840000124</v>
+          </cell>
+          <cell r="Q7">
+            <v>27.731258190386111</v>
+          </cell>
+          <cell r="R7">
+            <v>8.451691889062829</v>
+          </cell>
+          <cell r="S7">
+            <v>8.3144227137943005</v>
+          </cell>
+          <cell r="T7">
+            <v>6.174873888680299</v>
+          </cell>
+          <cell r="U7">
+            <v>5.0260982522815745</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
             <v>37256</v>
           </cell>
-          <cell r="D8">
+          <cell r="E8">
             <v>10090.582197103902</v>
           </cell>
-          <cell r="E8">
+          <cell r="G8">
             <v>9942.1731322253672</v>
           </cell>
         </row>
@@ -15600,10 +15655,10 @@
           <cell r="A9">
             <v>37287</v>
           </cell>
-          <cell r="D9">
+          <cell r="E9">
             <v>9979.5857929357589</v>
           </cell>
-          <cell r="E9">
+          <cell r="G9">
             <v>9875.5605722394575</v>
           </cell>
         </row>
@@ -15611,10 +15666,10 @@
           <cell r="A10">
             <v>37315</v>
           </cell>
-          <cell r="D10">
+          <cell r="E10">
             <v>9798.9552900836225</v>
           </cell>
-          <cell r="E10">
+          <cell r="G10">
             <v>9798.5311997759891</v>
           </cell>
         </row>
@@ -15622,10 +15677,10 @@
           <cell r="A11">
             <v>37346</v>
           </cell>
-          <cell r="D11">
+          <cell r="E11">
             <v>9902.8242161585076</v>
           </cell>
-          <cell r="E11">
+          <cell r="G11">
             <v>9962.1666708122466</v>
           </cell>
         </row>
@@ -15633,10 +15688,10 @@
           <cell r="A12">
             <v>37376</v>
           </cell>
-          <cell r="D12">
+          <cell r="E12">
             <v>9884.9991325694227</v>
           </cell>
-          <cell r="E12">
+          <cell r="G12">
             <v>9726.0633207139963</v>
           </cell>
         </row>
@@ -15644,10 +15699,10 @@
           <cell r="A13">
             <v>37407</v>
           </cell>
-          <cell r="D13">
+          <cell r="E13">
             <v>9881.0451329163952</v>
           </cell>
-          <cell r="E13">
+          <cell r="G13">
             <v>9716.3372573932829</v>
           </cell>
         </row>
@@ -15655,10 +15710,10 @@
           <cell r="A14">
             <v>37437</v>
           </cell>
-          <cell r="D14">
+          <cell r="E14">
             <v>9680.4599167181932</v>
           </cell>
-          <cell r="E14">
+          <cell r="G14">
             <v>9406.3860988824363</v>
           </cell>
         </row>
@@ -15666,10 +15721,10 @@
           <cell r="A15">
             <v>37468</v>
           </cell>
-          <cell r="D15">
+          <cell r="E15">
             <v>9505.2435922255936</v>
           </cell>
-          <cell r="E15">
+          <cell r="G15">
             <v>9095.9753576193161</v>
           </cell>
         </row>
@@ -15677,10 +15732,10 @@
           <cell r="A16">
             <v>37499</v>
           </cell>
-          <cell r="D16">
+          <cell r="E16">
             <v>9508.0951653032607</v>
           </cell>
-          <cell r="E16">
+          <cell r="G16">
             <v>9152.3704048365562</v>
           </cell>
         </row>
@@ -15688,10 +15743,10 @@
           <cell r="A17">
             <v>37529</v>
           </cell>
-          <cell r="D17">
+          <cell r="E17">
             <v>9347.4083570096354</v>
           </cell>
-          <cell r="E17">
+          <cell r="G17">
             <v>8699.3280697971459</v>
           </cell>
         </row>
@@ -15699,21 +15754,24 @@
           <cell r="A18">
             <v>37560</v>
           </cell>
-          <cell r="D18">
+          <cell r="E18">
             <v>9340.8651711597286</v>
           </cell>
-          <cell r="E18">
+          <cell r="G18">
             <v>9082.0985048682214</v>
+          </cell>
+          <cell r="J18">
+            <v>0.79297385392544295</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
             <v>37590</v>
           </cell>
-          <cell r="D19">
+          <cell r="E19">
             <v>9504.3303116550251</v>
           </cell>
-          <cell r="E19">
+          <cell r="G19">
             <v>9368.1846077715709</v>
           </cell>
         </row>
@@ -15721,32 +15779,38 @@
           <cell r="A20">
             <v>37621</v>
           </cell>
-          <cell r="D20">
+          <cell r="E20">
             <v>9529.0415704653278</v>
           </cell>
-          <cell r="E20">
+          <cell r="G20">
             <v>9153.653180253601</v>
+          </cell>
+          <cell r="J20">
+            <v>2.2381825398488688E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
             <v>37652</v>
           </cell>
-          <cell r="D21">
+          <cell r="E21">
             <v>9533.8060912505607</v>
           </cell>
-          <cell r="E21">
+          <cell r="G21">
             <v>9049.3015339987105</v>
+          </cell>
+          <cell r="J21">
+            <v>0.78173173985449418</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
             <v>37680</v>
           </cell>
-          <cell r="D22">
+          <cell r="E22">
             <v>9570.9879350064384</v>
           </cell>
-          <cell r="E22">
+          <cell r="G22">
             <v>9016.7240484763151</v>
           </cell>
         </row>
@@ -15754,10 +15818,10 @@
           <cell r="A23">
             <v>37711</v>
           </cell>
-          <cell r="D23">
+          <cell r="E23">
             <v>9533.6610820599126</v>
           </cell>
-          <cell r="E23">
+          <cell r="G23">
             <v>9074.4310823865635</v>
           </cell>
         </row>
@@ -15765,10 +15829,10 @@
           <cell r="A24">
             <v>37741</v>
           </cell>
-          <cell r="D24">
+          <cell r="E24">
             <v>9772.0026091114087</v>
           </cell>
-          <cell r="E24">
+          <cell r="G24">
             <v>9467.3539482538999</v>
           </cell>
         </row>
@@ -15776,10 +15840,10 @@
           <cell r="A25">
             <v>37772</v>
           </cell>
-          <cell r="D25">
+          <cell r="E25">
             <v>10015.325474078281</v>
           </cell>
-          <cell r="E25">
+          <cell r="G25">
             <v>9754.2147728859927</v>
           </cell>
         </row>
@@ -15787,10 +15851,10 @@
           <cell r="A26">
             <v>37802</v>
           </cell>
-          <cell r="D26">
+          <cell r="E26">
             <v>10204.615125538359</v>
           </cell>
-          <cell r="E26">
+          <cell r="G26">
             <v>9828.3468051599266</v>
           </cell>
         </row>
@@ -15798,230 +15862,350 @@
           <cell r="A27">
             <v>37833</v>
           </cell>
-          <cell r="D27">
+          <cell r="E27">
             <v>10176.042203186851</v>
           </cell>
-          <cell r="E27">
+          <cell r="G27">
             <v>9881.4198779077906</v>
+          </cell>
+          <cell r="L27">
+            <v>-5.5399999999999998E-2</v>
+          </cell>
+          <cell r="M27">
+            <v>-7.9310623692113391E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
             <v>37864</v>
           </cell>
-          <cell r="D28">
+          <cell r="E28">
             <v>10209.623142457369</v>
           </cell>
-          <cell r="E28">
+          <cell r="G28">
             <v>9981.2222186746585</v>
+          </cell>
+          <cell r="L28">
+            <v>0.14899999999999999</v>
+          </cell>
+          <cell r="M28">
+            <v>0.15819868030185025</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
             <v>37894</v>
           </cell>
-          <cell r="D29">
+          <cell r="E29">
             <v>10312.740336196188</v>
           </cell>
-          <cell r="E29">
+          <cell r="G29">
             <v>9989.2071964495972</v>
+          </cell>
+          <cell r="L29">
+            <v>8.1199999999999994E-2</v>
+          </cell>
+          <cell r="M29">
+            <v>5.8541911793393631E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
             <v>37925</v>
           </cell>
-          <cell r="D30">
+          <cell r="E30">
             <v>10500.432210314959</v>
           </cell>
-          <cell r="E30">
+          <cell r="G30">
             <v>10252.922266435866</v>
+          </cell>
+          <cell r="L30">
+            <v>8.4900000000000003E-2</v>
+          </cell>
+          <cell r="M30">
+            <v>3.5099999999999999E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
             <v>37955</v>
           </cell>
-          <cell r="D31">
+          <cell r="E31">
             <v>10584.435667997479</v>
           </cell>
-          <cell r="E31">
+          <cell r="G31">
             <v>10294.959247728253</v>
+          </cell>
+          <cell r="L31">
+            <v>0.15968572788066604</v>
+          </cell>
+          <cell r="M31">
+            <v>0.10108192150892759</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
             <v>37986</v>
           </cell>
-          <cell r="D32">
+          <cell r="E32">
             <v>10949.598698543392</v>
           </cell>
-          <cell r="E32">
+          <cell r="G32">
             <v>10601.749033310556</v>
+          </cell>
+          <cell r="L32">
+            <v>9.295516518667335E-2</v>
+          </cell>
+          <cell r="M32">
+            <v>5.8999999999999997E-2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
             <v>38017</v>
           </cell>
-          <cell r="D33">
+          <cell r="E33">
             <v>11018.581170344214</v>
           </cell>
-          <cell r="E33">
+          <cell r="G33">
             <v>10715.187747966978</v>
+          </cell>
+          <cell r="L33">
+            <v>-0.13786936621454959</v>
+          </cell>
+          <cell r="M33">
+            <v>-0.21054084541884954</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
             <v>38046</v>
           </cell>
-          <cell r="D34">
+          <cell r="E34">
             <v>11148.600428154276</v>
           </cell>
-          <cell r="E34">
+          <cell r="G34">
             <v>10820.196587897055</v>
+          </cell>
+          <cell r="L34">
+            <v>0.12910749271300448</v>
+          </cell>
+          <cell r="M34">
+            <v>0.19407184154643842</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
             <v>38077</v>
           </cell>
-          <cell r="D35">
+          <cell r="E35">
             <v>11092.857426013505</v>
           </cell>
-          <cell r="E35">
+          <cell r="G35">
             <v>10760.685506663622</v>
+          </cell>
+          <cell r="L35">
+            <v>0.10165801109264971</v>
+          </cell>
+          <cell r="M35">
+            <v>0.10038311937164801</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
             <v>38107</v>
           </cell>
-          <cell r="D36">
+          <cell r="E36">
             <v>11096.185283241308</v>
           </cell>
-          <cell r="E36">
+          <cell r="G36">
             <v>10591.742744209003</v>
+          </cell>
+          <cell r="L36">
+            <v>1.270806029209548E-2</v>
+          </cell>
+          <cell r="M36">
+            <v>-2.4015032054443997E-2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
             <v>38138</v>
           </cell>
-          <cell r="D37">
+          <cell r="E37">
             <v>11129.47383909103</v>
           </cell>
-          <cell r="E37">
+          <cell r="G37">
             <v>10654.234026399836</v>
+          </cell>
+          <cell r="L37">
+            <v>0.1087</v>
+          </cell>
+          <cell r="M37">
+            <v>0.10443326863395752</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
             <v>38168</v>
           </cell>
-          <cell r="D38">
+          <cell r="E38">
             <v>11267.479314695758</v>
           </cell>
-          <cell r="E38">
+          <cell r="G38">
             <v>10756.514673053274</v>
+          </cell>
+          <cell r="L38">
+            <v>0.1416</v>
+          </cell>
+          <cell r="M38">
+            <v>0.1203</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
             <v>38199</v>
           </cell>
-          <cell r="D39">
+          <cell r="E39">
             <v>11170.578992589373</v>
           </cell>
-          <cell r="E39">
+          <cell r="G39">
             <v>10604.847816163223</v>
+          </cell>
+          <cell r="L39">
+            <v>2.6380915966977669E-2</v>
+          </cell>
+          <cell r="M39">
+            <v>2.9700000000000001E-2</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
             <v>38230</v>
           </cell>
-          <cell r="D40">
+          <cell r="E40">
             <v>11247.655987638238</v>
           </cell>
-          <cell r="E40">
+          <cell r="G40">
             <v>10668.476903060202</v>
+          </cell>
+          <cell r="L40">
+            <v>9.7265904329510988E-3</v>
+          </cell>
+          <cell r="M40">
+            <v>-1.4E-3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
             <v>38260</v>
           </cell>
-          <cell r="D41">
+          <cell r="E41">
             <v>11373.629734699787</v>
           </cell>
-          <cell r="E41">
+          <cell r="G41">
             <v>10725.019830646423</v>
+          </cell>
+          <cell r="L41">
+            <v>5.1679014752407992E-2</v>
+          </cell>
+          <cell r="M41">
+            <v>5.2625287629815887E-2</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
             <v>38291</v>
           </cell>
-          <cell r="D42">
+          <cell r="E42">
             <v>11405.475897956945</v>
           </cell>
-          <cell r="E42">
+          <cell r="G42">
             <v>10827.980021020629</v>
+          </cell>
+          <cell r="L42">
+            <v>0.11283136543336147</v>
+          </cell>
+          <cell r="M42">
+            <v>0.12614916155879508</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
             <v>38321</v>
           </cell>
-          <cell r="D43">
+          <cell r="E43">
             <v>11674.64512914873</v>
           </cell>
-          <cell r="E43">
+          <cell r="G43">
             <v>11018.552469390592</v>
+          </cell>
+          <cell r="L43">
+            <v>-2.0750190304852256E-2</v>
+          </cell>
+          <cell r="M43">
+            <v>-3.5733946962244856E-2</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
             <v>38352</v>
           </cell>
-          <cell r="D44">
+          <cell r="E44">
             <v>11839.257625469727</v>
           </cell>
-          <cell r="E44">
+          <cell r="G44">
             <v>11222.395690074318</v>
+          </cell>
+          <cell r="L44">
+            <v>0.1199409765488102</v>
+          </cell>
+          <cell r="M44">
+            <v>0.1585</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
             <v>38383</v>
           </cell>
-          <cell r="D45">
+          <cell r="E45">
             <v>11720.86504921503</v>
           </cell>
-          <cell r="E45">
+          <cell r="G45">
             <v>11085.482462655411</v>
+          </cell>
+          <cell r="L45">
+            <v>4.8617896424043128E-2</v>
+          </cell>
+          <cell r="M45">
+            <v>0.10981351722832056</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
             <v>38411</v>
           </cell>
-          <cell r="D46">
+          <cell r="E46">
             <v>12033.812146029071</v>
           </cell>
-          <cell r="E46">
+          <cell r="G46">
             <v>11188.577449558106</v>
+          </cell>
+          <cell r="L46">
+            <v>5.0725442038000113E-2</v>
+          </cell>
+          <cell r="M46">
+            <v>2.3099999999999999E-2</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
             <v>38442</v>
           </cell>
-          <cell r="D47">
+          <cell r="E47">
             <v>11945.96531736306</v>
           </cell>
-          <cell r="E47">
+          <cell r="G47">
             <v>11085.642537022171</v>
           </cell>
         </row>
@@ -16029,10 +16213,10 @@
           <cell r="A48">
             <v>38472</v>
           </cell>
-          <cell r="D48">
+          <cell r="E48">
             <v>11906.543631815763</v>
           </cell>
-          <cell r="E48">
+          <cell r="G48">
             <v>11015.802989038932</v>
           </cell>
         </row>
@@ -16040,10 +16224,10 @@
           <cell r="A49">
             <v>38503</v>
           </cell>
-          <cell r="D49">
+          <cell r="E49">
             <v>12068.472625208458</v>
           </cell>
-          <cell r="E49">
+          <cell r="G49">
             <v>11215.189023140536</v>
           </cell>
         </row>
@@ -16051,10 +16235,10 @@
           <cell r="A50">
             <v>38533</v>
           </cell>
-          <cell r="D50">
+          <cell r="E50">
             <v>12341.220106538169</v>
           </cell>
-          <cell r="E50">
+          <cell r="G50">
             <v>11238.740920089131</v>
           </cell>
         </row>
@@ -16062,10 +16246,10 @@
           <cell r="A51">
             <v>38564</v>
           </cell>
-          <cell r="D51">
+          <cell r="E51">
             <v>12568.29855649847</v>
           </cell>
-          <cell r="E51">
+          <cell r="G51">
             <v>11435.418886190691</v>
           </cell>
         </row>
@@ -16073,10 +16257,10 @@
           <cell r="A52">
             <v>38595</v>
           </cell>
-          <cell r="D52">
+          <cell r="E52">
             <v>12700.265691341703</v>
           </cell>
-          <cell r="E52">
+          <cell r="G52">
             <v>11422.839925415881</v>
           </cell>
         </row>
@@ -16084,10 +16268,10 @@
           <cell r="A53">
             <v>38625</v>
           </cell>
-          <cell r="D53">
+          <cell r="E53">
             <v>12959.351111445074</v>
           </cell>
-          <cell r="E53">
+          <cell r="G53">
             <v>11454.823877207045</v>
           </cell>
         </row>
@@ -16095,10 +16279,10 @@
           <cell r="A54">
             <v>38656</v>
           </cell>
-          <cell r="D54">
+          <cell r="E54">
             <v>12623.703917658646</v>
           </cell>
-          <cell r="E54">
+          <cell r="G54">
             <v>11358.603356638507</v>
           </cell>
         </row>
@@ -16106,10 +16290,10 @@
           <cell r="A55">
             <v>38686</v>
           </cell>
-          <cell r="D55">
+          <cell r="E55">
             <v>12694.396659597534</v>
           </cell>
-          <cell r="E55">
+          <cell r="G55">
             <v>11591.454725449596</v>
           </cell>
         </row>
@@ -16117,10 +16301,10 @@
           <cell r="A56">
             <v>38717</v>
           </cell>
-          <cell r="D56">
+          <cell r="E56">
             <v>12845.459979846746</v>
           </cell>
-          <cell r="E56">
+          <cell r="G56">
             <v>11616.955925845585</v>
           </cell>
         </row>
@@ -16128,10 +16312,10 @@
           <cell r="A57">
             <v>38748</v>
           </cell>
-          <cell r="D57">
+          <cell r="E57">
             <v>13402.573512306381</v>
           </cell>
-          <cell r="E57">
+          <cell r="G57">
             <v>11783.078395585177</v>
           </cell>
         </row>
@@ -16139,10 +16323,10 @@
           <cell r="A58">
             <v>38776</v>
           </cell>
-          <cell r="D58">
+          <cell r="E58">
             <v>13347.227074156985</v>
           </cell>
-          <cell r="E58">
+          <cell r="G58">
             <v>11806.644552376347</v>
           </cell>
         </row>
@@ -16150,10 +16334,10 @@
           <cell r="A59">
             <v>38807</v>
           </cell>
-          <cell r="D59">
+          <cell r="E59">
             <v>13608.438472890941</v>
           </cell>
-          <cell r="E59">
+          <cell r="G59">
             <v>11891.652393153458</v>
           </cell>
         </row>
@@ -16161,10 +16345,10 @@
           <cell r="A60">
             <v>38837</v>
           </cell>
-          <cell r="D60">
+          <cell r="E60">
             <v>13934.639028628637</v>
           </cell>
-          <cell r="E60">
+          <cell r="G60">
             <v>11991.542273255945</v>
           </cell>
         </row>
@@ -16172,10 +16356,10 @@
           <cell r="A61">
             <v>38868</v>
           </cell>
-          <cell r="D61">
+          <cell r="E61">
             <v>13626.271903134944</v>
           </cell>
-          <cell r="E61">
+          <cell r="G61">
             <v>11827.258144112338</v>
           </cell>
         </row>
@@ -16183,10 +16367,10 @@
           <cell r="A62">
             <v>38898</v>
           </cell>
-          <cell r="D62">
+          <cell r="E62">
             <v>13695.363395463346</v>
           </cell>
-          <cell r="E62">
+          <cell r="G62">
             <v>11847.36448295733</v>
           </cell>
         </row>
@@ -16194,10 +16378,10 @@
           <cell r="A63">
             <v>38929</v>
           </cell>
-          <cell r="D63">
+          <cell r="E63">
             <v>13912.715138241225</v>
           </cell>
-          <cell r="E63">
+          <cell r="G63">
             <v>11931.480770786327</v>
           </cell>
         </row>
@@ -16205,10 +16389,10 @@
           <cell r="A64">
             <v>38960</v>
           </cell>
-          <cell r="D64">
+          <cell r="E64">
             <v>14043.083705170073</v>
           </cell>
-          <cell r="E64">
+          <cell r="G64">
             <v>12119.998166964751</v>
           </cell>
         </row>
@@ -16216,10 +16400,10 @@
           <cell r="A65">
             <v>38990</v>
           </cell>
-          <cell r="D65">
+          <cell r="E65">
             <v>14058.116291033504</v>
           </cell>
-          <cell r="E65">
+          <cell r="G65">
             <v>12310.282138186098</v>
           </cell>
         </row>
@@ -16227,10 +16411,10 @@
           <cell r="A66">
             <v>39021</v>
           </cell>
-          <cell r="D66">
+          <cell r="E66">
             <v>14355.733106156918</v>
           </cell>
-          <cell r="E66">
+          <cell r="G66">
             <v>12539.253385956359</v>
           </cell>
         </row>
@@ -16238,10 +16422,10 @@
           <cell r="A67">
             <v>39051</v>
           </cell>
-          <cell r="D67">
+          <cell r="E67">
             <v>14661.086180032049</v>
           </cell>
-          <cell r="E67">
+          <cell r="G67">
             <v>12694.740127942217</v>
           </cell>
         </row>
@@ -16249,10 +16433,10 @@
           <cell r="A68">
             <v>39082</v>
           </cell>
-          <cell r="D68">
+          <cell r="E68">
             <v>14896.696606690539</v>
           </cell>
-          <cell r="E68">
+          <cell r="G68">
             <v>12791.220152914579</v>
           </cell>
         </row>
@@ -16260,10 +16444,10 @@
           <cell r="A69">
             <v>39113</v>
           </cell>
-          <cell r="D69">
+          <cell r="E69">
             <v>15045.223552429694</v>
           </cell>
-          <cell r="E69">
+          <cell r="G69">
             <v>12905.062012275517</v>
           </cell>
         </row>
@@ -16271,10 +16455,10 @@
           <cell r="A70">
             <v>39141</v>
           </cell>
-          <cell r="D70">
+          <cell r="E70">
             <v>14940.967102384273</v>
           </cell>
-          <cell r="E70">
+          <cell r="G70">
             <v>12835.374677409231</v>
           </cell>
         </row>
@@ -16282,10 +16466,10 @@
           <cell r="A71">
             <v>39172</v>
           </cell>
-          <cell r="D71">
+          <cell r="E71">
             <v>15251.297890119155</v>
           </cell>
-          <cell r="E71">
+          <cell r="G71">
             <v>12932.923524957541</v>
           </cell>
         </row>
@@ -16293,10 +16477,10 @@
           <cell r="A72">
             <v>39202</v>
           </cell>
-          <cell r="D72">
+          <cell r="E72">
             <v>15653.481659837293</v>
           </cell>
-          <cell r="E72">
+          <cell r="G72">
             <v>13244.606981909019</v>
           </cell>
         </row>
@@ -16304,10 +16488,10 @@
           <cell r="A73">
             <v>39233</v>
           </cell>
-          <cell r="D73">
+          <cell r="E73">
             <v>15903.474992063504</v>
           </cell>
-          <cell r="E73">
+          <cell r="G73">
             <v>13469.765300601472</v>
           </cell>
         </row>
@@ -16315,10 +16499,10 @@
           <cell r="A74">
             <v>39263</v>
           </cell>
-          <cell r="D74">
+          <cell r="E74">
             <v>16003.197125850689</v>
           </cell>
-          <cell r="E74">
+          <cell r="G74">
             <v>13384.905779207682</v>
           </cell>
         </row>
@@ -16326,10 +16510,10 @@
           <cell r="A75">
             <v>39294</v>
           </cell>
-          <cell r="D75">
+          <cell r="E75">
             <v>15721.068152169109</v>
           </cell>
-          <cell r="E75">
+          <cell r="G75">
             <v>13220.271438123427</v>
           </cell>
         </row>
@@ -16337,10 +16521,10 @@
           <cell r="A76">
             <v>39325</v>
           </cell>
-          <cell r="D76">
+          <cell r="E76">
             <v>15690.733751971266</v>
           </cell>
-          <cell r="E76">
+          <cell r="G76">
             <v>13359.084288223723</v>
           </cell>
         </row>
@@ -16348,10 +16532,10 @@
           <cell r="A77">
             <v>39355</v>
           </cell>
-          <cell r="D77">
+          <cell r="E77">
             <v>16236.307811852126</v>
           </cell>
-          <cell r="E77">
+          <cell r="G77">
             <v>13648.976417278178</v>
           </cell>
         </row>
@@ -16359,10 +16543,10 @@
           <cell r="A78">
             <v>39386</v>
           </cell>
-          <cell r="D78">
+          <cell r="E78">
             <v>16422.545761771718</v>
           </cell>
-          <cell r="E78">
+          <cell r="G78">
             <v>13793.655567301326</v>
           </cell>
         </row>
@@ -16370,10 +16554,10 @@
           <cell r="A79">
             <v>39416</v>
           </cell>
-          <cell r="D79">
+          <cell r="E79">
             <v>16233.201394476777</v>
           </cell>
-          <cell r="E79">
+          <cell r="G79">
             <v>13581.233271564886</v>
           </cell>
         </row>
@@ -16381,10 +16565,10 @@
           <cell r="A80">
             <v>39447</v>
           </cell>
-          <cell r="D80">
+          <cell r="E80">
             <v>16281.421500501214</v>
           </cell>
-          <cell r="E80">
+          <cell r="G80">
             <v>13547.280188385976</v>
           </cell>
         </row>
@@ -16392,10 +16576,10 @@
           <cell r="A81">
             <v>39478</v>
           </cell>
-          <cell r="D81">
+          <cell r="E81">
             <v>15740.397384194574</v>
           </cell>
-          <cell r="E81">
+          <cell r="G81">
             <v>13253.304208297999</v>
           </cell>
         </row>
@@ -16403,10 +16587,10 @@
           <cell r="A82">
             <v>39507</v>
           </cell>
-          <cell r="D82">
+          <cell r="E82">
             <v>15804.468071811982</v>
           </cell>
-          <cell r="E82">
+          <cell r="G82">
             <v>13100.891209902573</v>
           </cell>
         </row>
@@ -16414,10 +16598,10 @@
           <cell r="A83">
             <v>39538</v>
           </cell>
-          <cell r="D83">
+          <cell r="E83">
             <v>15769.231407868911</v>
           </cell>
-          <cell r="E83">
+          <cell r="G83">
             <v>13009.184971433255</v>
           </cell>
         </row>
@@ -16425,10 +16609,10 @@
           <cell r="A84">
             <v>39568</v>
           </cell>
-          <cell r="D84">
+          <cell r="E84">
             <v>16147.227168297286</v>
           </cell>
-          <cell r="E84">
+          <cell r="G84">
             <v>13317.502655256223</v>
           </cell>
         </row>
@@ -16436,10 +16620,10 @@
           <cell r="A85">
             <v>39599</v>
           </cell>
-          <cell r="D85">
+          <cell r="E85">
             <v>16400.261676197082</v>
           </cell>
-          <cell r="E85">
+          <cell r="G85">
             <v>13413.38867437407</v>
           </cell>
         </row>
@@ -16447,10 +16631,10 @@
           <cell r="A86">
             <v>39629</v>
           </cell>
-          <cell r="D86">
+          <cell r="E86">
             <v>16053.731722024626</v>
           </cell>
-          <cell r="E86">
+          <cell r="G86">
             <v>12848.685011182921</v>
           </cell>
         </row>
@@ -16458,10 +16642,10 @@
           <cell r="A87">
             <v>39660</v>
           </cell>
-          <cell r="D87">
+          <cell r="E87">
             <v>15818.873041919778</v>
           </cell>
-          <cell r="E87">
+          <cell r="G87">
             <v>12798.575139639308</v>
           </cell>
         </row>
@@ -16469,10 +16653,10 @@
           <cell r="A88">
             <v>39691</v>
           </cell>
-          <cell r="D88">
+          <cell r="E88">
             <v>15813.660120326462</v>
           </cell>
-          <cell r="E88">
+          <cell r="G88">
             <v>12926.5608910357</v>
           </cell>
         </row>
@@ -16480,10 +16664,10 @@
           <cell r="A89">
             <v>39721</v>
           </cell>
-          <cell r="D89">
+          <cell r="E89">
             <v>15077.857819030416</v>
           </cell>
-          <cell r="E89">
+          <cell r="G89">
             <v>11982.921945990094</v>
           </cell>
         </row>
@@ -16491,10 +16675,10 @@
           <cell r="A90">
             <v>39752</v>
           </cell>
-          <cell r="D90">
+          <cell r="E90">
             <v>14015.93125708232</v>
           </cell>
-          <cell r="E90">
+          <cell r="G90">
             <v>10849.337529899431</v>
           </cell>
         </row>
@@ -16502,10 +16686,10 @@
           <cell r="A91">
             <v>39782</v>
           </cell>
-          <cell r="D91">
+          <cell r="E91">
             <v>13763.230490274698</v>
           </cell>
-          <cell r="E91">
+          <cell r="G91">
             <v>10539.046476544307</v>
           </cell>
         </row>
@@ -16513,10 +16697,10 @@
           <cell r="A92">
             <v>39813</v>
           </cell>
-          <cell r="D92">
+          <cell r="E92">
             <v>14036.71223715517</v>
           </cell>
-          <cell r="E92">
+          <cell r="G92">
             <v>10695.024364397161</v>
           </cell>
         </row>
@@ -16524,10 +16708,10 @@
           <cell r="A93">
             <v>39844</v>
           </cell>
-          <cell r="D93">
+          <cell r="E93">
             <v>13810.219413615026</v>
           </cell>
-          <cell r="E93">
+          <cell r="G93">
             <v>10314.281497024622</v>
           </cell>
         </row>
@@ -16535,10 +16719,10 @@
           <cell r="A94">
             <v>39872</v>
           </cell>
-          <cell r="D94">
+          <cell r="E94">
             <v>13329.130117715076</v>
           </cell>
-          <cell r="E94">
+          <cell r="G94">
             <v>9717.0845983468971</v>
           </cell>
         </row>
@@ -16546,10 +16730,10 @@
           <cell r="A95">
             <v>39903</v>
           </cell>
-          <cell r="D95">
+          <cell r="E95">
             <v>13617.895777988388</v>
           </cell>
-          <cell r="E95">
+          <cell r="G95">
             <v>10126.173859937302</v>
           </cell>
         </row>
@@ -16557,10 +16741,10 @@
           <cell r="A96">
             <v>39933</v>
           </cell>
-          <cell r="D96">
+          <cell r="E96">
             <v>13892.490487201114</v>
           </cell>
-          <cell r="E96">
+          <cell r="G96">
             <v>10759.059726183383</v>
           </cell>
         </row>
@@ -16568,10 +16752,10 @@
           <cell r="A97">
             <v>39964</v>
           </cell>
-          <cell r="D97">
+          <cell r="E97">
             <v>14333.775083524955</v>
           </cell>
-          <cell r="E97">
+          <cell r="G97">
             <v>11189.422115230718</v>
           </cell>
         </row>
@@ -16579,10 +16763,10 @@
           <cell r="A98">
             <v>39994</v>
           </cell>
-          <cell r="D98">
+          <cell r="E98">
             <v>14453.666418891748</v>
           </cell>
-          <cell r="E98">
+          <cell r="G98">
             <v>11259.915474556672</v>
           </cell>
         </row>
@@ -16590,10 +16774,10 @@
           <cell r="A99">
             <v>40025</v>
           </cell>
-          <cell r="D99">
+          <cell r="E99">
             <v>14839.062651303902</v>
           </cell>
-          <cell r="E99">
+          <cell r="G99">
             <v>11765.485679364267</v>
           </cell>
         </row>
@@ -16601,10 +16785,10 @@
           <cell r="A100">
             <v>40056</v>
           </cell>
-          <cell r="D100">
+          <cell r="E100">
             <v>15041.827372275122</v>
           </cell>
-          <cell r="E100">
+          <cell r="G100">
             <v>12038.444947125519</v>
           </cell>
         </row>
@@ -16612,10 +16796,10 @@
           <cell r="A101">
             <v>40086</v>
           </cell>
-          <cell r="D101">
+          <cell r="E101">
             <v>15295.496569484232</v>
           </cell>
-          <cell r="E101">
+          <cell r="G101">
             <v>12311.717647425268</v>
           </cell>
         </row>
@@ -16623,10 +16807,10 @@
           <cell r="A102">
             <v>40117</v>
           </cell>
-          <cell r="D102">
+          <cell r="E102">
             <v>15392.84099448374</v>
           </cell>
-          <cell r="E102">
+          <cell r="G102">
             <v>12252.621402717627</v>
           </cell>
         </row>
@@ -16634,10 +16818,10 @@
           <cell r="A103">
             <v>40147</v>
           </cell>
-          <cell r="D103">
+          <cell r="E103">
             <v>15675.519036061803</v>
           </cell>
-          <cell r="E103">
+          <cell r="G103">
             <v>12666.760006129483</v>
           </cell>
         </row>
@@ -16645,10 +16829,10 @@
           <cell r="A104">
             <v>40178</v>
           </cell>
-          <cell r="D104">
+          <cell r="E104">
             <v>15848.956960028221</v>
           </cell>
-          <cell r="E104">
+          <cell r="G104">
             <v>12770.627438179745</v>
           </cell>
         </row>
@@ -16656,10 +16840,10 @@
           <cell r="A105">
             <v>40209</v>
           </cell>
-          <cell r="D105">
+          <cell r="E105">
             <v>15639.282579852896</v>
           </cell>
-          <cell r="E105">
+          <cell r="G105">
             <v>12610.994595202499</v>
           </cell>
         </row>
@@ -16667,10 +16851,10 @@
           <cell r="A106">
             <v>40237</v>
           </cell>
-          <cell r="D106">
+          <cell r="E106">
             <v>15759.243100800626</v>
           </cell>
-          <cell r="E106">
+          <cell r="G106">
             <v>12822.8593044019</v>
           </cell>
         </row>
@@ -16678,10 +16862,10 @@
           <cell r="A107">
             <v>40268</v>
           </cell>
-          <cell r="D107">
+          <cell r="E107">
             <v>16119.664269484241</v>
           </cell>
-          <cell r="E107">
+          <cell r="G107">
             <v>13222.932514699238</v>
           </cell>
         </row>
@@ -16689,10 +16873,10 @@
           <cell r="A108">
             <v>40298</v>
           </cell>
-          <cell r="D108">
+          <cell r="E108">
             <v>16249.757405580649</v>
           </cell>
-          <cell r="E108">
+          <cell r="G108">
             <v>13356.4841330977</v>
           </cell>
         </row>
@@ -16700,10 +16884,10 @@
           <cell r="A109">
             <v>40329</v>
           </cell>
-          <cell r="D109">
+          <cell r="E109">
             <v>15622.036782532892</v>
           </cell>
-          <cell r="E109">
+          <cell r="G109">
             <v>12796.847447920905</v>
           </cell>
         </row>
@@ -16711,10 +16895,10 @@
           <cell r="A110">
             <v>40359</v>
           </cell>
-          <cell r="D110">
+          <cell r="E110">
             <v>15632.510762771864</v>
           </cell>
-          <cell r="E110">
+          <cell r="G110">
             <v>12498.680902384349</v>
           </cell>
         </row>
@@ -16722,10 +16906,10 @@
           <cell r="A111">
             <v>40390</v>
           </cell>
-          <cell r="D111">
+          <cell r="E111">
             <v>16185.43988888356</v>
           </cell>
-          <cell r="E111">
+          <cell r="G111">
             <v>12996.128402299246</v>
           </cell>
         </row>
@@ -16733,10 +16917,10 @@
           <cell r="A112">
             <v>40421</v>
           </cell>
-          <cell r="D112">
+          <cell r="E112">
             <v>16050.622650431647</v>
           </cell>
-          <cell r="E112">
+          <cell r="G112">
             <v>12733.606608572802</v>
           </cell>
         </row>
@@ -16744,10 +16928,10 @@
           <cell r="A113">
             <v>40451</v>
           </cell>
-          <cell r="D113">
+          <cell r="E113">
             <v>16822.183494790232</v>
           </cell>
-          <cell r="E113">
+          <cell r="G113">
             <v>13335.906201158294</v>
           </cell>
         </row>
@@ -16755,10 +16939,10 @@
           <cell r="A114">
             <v>40482</v>
           </cell>
-          <cell r="D114">
+          <cell r="E114">
             <v>17195.139072794951</v>
           </cell>
-          <cell r="E114">
+          <cell r="G114">
             <v>13619.961003242966</v>
           </cell>
         </row>
@@ -16766,10 +16950,10 @@
           <cell r="A115">
             <v>40512</v>
           </cell>
-          <cell r="D115">
+          <cell r="E115">
             <v>16990.00900584456</v>
           </cell>
-          <cell r="E115">
+          <cell r="G115">
             <v>13604.979046139399</v>
           </cell>
         </row>
@@ -16777,10 +16961,10 @@
           <cell r="A116">
             <v>40543</v>
           </cell>
-          <cell r="D116">
+          <cell r="E116">
             <v>17460.130402477698</v>
           </cell>
-          <cell r="E116">
+          <cell r="G116">
             <v>14052.582856757384</v>
           </cell>
         </row>
@@ -16788,10 +16972,10 @@
           <cell r="A117">
             <v>40574</v>
           </cell>
-          <cell r="D117">
+          <cell r="E117">
             <v>17517.233093477545</v>
           </cell>
-          <cell r="E117">
+          <cell r="G117">
             <v>14190.298168753607</v>
           </cell>
         </row>
@@ -16799,10 +16983,10 @@
           <cell r="A118">
             <v>40602</v>
           </cell>
-          <cell r="D118">
+          <cell r="E118">
             <v>17758.453484133392</v>
           </cell>
-          <cell r="E118">
+          <cell r="G118">
             <v>14410.247790369289</v>
           </cell>
         </row>
@@ -16810,10 +16994,10 @@
           <cell r="A119">
             <v>40633</v>
           </cell>
-          <cell r="D119">
+          <cell r="E119">
             <v>17937.289313093512</v>
           </cell>
-          <cell r="E119">
+          <cell r="G119">
             <v>14408.806765590252</v>
           </cell>
         </row>
@@ -16821,10 +17005,10 @@
           <cell r="A120">
             <v>40663</v>
           </cell>
-          <cell r="D120">
+          <cell r="E120">
             <v>18422.860019775555</v>
           </cell>
-          <cell r="E120">
+          <cell r="G120">
             <v>14756.059008640977</v>
           </cell>
         </row>
@@ -16832,10 +17016,10 @@
           <cell r="A121">
             <v>40694</v>
           </cell>
-          <cell r="D121">
+          <cell r="E121">
             <v>18418.631271225753</v>
           </cell>
-          <cell r="E121">
+          <cell r="G121">
             <v>14635.059324770122</v>
           </cell>
         </row>
@@ -16843,10 +17027,10 @@
           <cell r="A122">
             <v>40724</v>
           </cell>
-          <cell r="D122">
+          <cell r="E122">
             <v>18235.742770004028</v>
           </cell>
-          <cell r="E122">
+          <cell r="G122">
             <v>14519.442356104437</v>
           </cell>
         </row>
@@ -16854,10 +17038,10 @@
           <cell r="A123">
             <v>40755</v>
           </cell>
-          <cell r="D123">
+          <cell r="E123">
             <v>18306.323517351913</v>
           </cell>
-          <cell r="E123">
+          <cell r="G123">
             <v>14432.325701967809</v>
           </cell>
         </row>
@@ -16865,10 +17049,10 @@
           <cell r="A124">
             <v>40786</v>
           </cell>
-          <cell r="D124">
+          <cell r="E124">
             <v>17773.068768719659</v>
           </cell>
-          <cell r="E124">
+          <cell r="G124">
             <v>13879.567627582443</v>
           </cell>
         </row>
@@ -16876,10 +17060,10 @@
           <cell r="A125">
             <v>40816</v>
           </cell>
-          <cell r="D125">
+          <cell r="E125">
             <v>16924.768405514158</v>
           </cell>
-          <cell r="E125">
+          <cell r="G125">
             <v>13189.753116491596</v>
           </cell>
         </row>
@@ -16887,10 +17071,10 @@
           <cell r="A126">
             <v>40847</v>
           </cell>
-          <cell r="D126">
+          <cell r="E126">
             <v>17719.732594828882</v>
           </cell>
-          <cell r="E126">
+          <cell r="G126">
             <v>13948.163920689865</v>
           </cell>
         </row>
@@ -16898,10 +17082,10 @@
           <cell r="A127">
             <v>40877</v>
           </cell>
-          <cell r="D127">
+          <cell r="E127">
             <v>17552.64370094992</v>
           </cell>
-          <cell r="E127">
+          <cell r="G127">
             <v>13708.255501254</v>
           </cell>
         </row>
@@ -16909,10 +17093,10 @@
           <cell r="A128">
             <v>40908</v>
           </cell>
-          <cell r="D128">
+          <cell r="E128">
             <v>17682.014792340233</v>
           </cell>
-          <cell r="E128">
+          <cell r="G128">
             <v>13715.109629004626</v>
           </cell>
         </row>
@@ -16920,10 +17104,10 @@
           <cell r="A129">
             <v>40939</v>
           </cell>
-          <cell r="D129">
+          <cell r="E129">
             <v>17996.232362269082</v>
           </cell>
-          <cell r="E129">
+          <cell r="G129">
             <v>14186.909400242384</v>
           </cell>
         </row>
@@ -16931,10 +17115,10 @@
           <cell r="A130">
             <v>40968</v>
           </cell>
-          <cell r="D130">
+          <cell r="E130">
             <v>18413.213378304408</v>
           </cell>
-          <cell r="E130">
+          <cell r="G130">
             <v>14575.630717809026</v>
           </cell>
         </row>
@@ -16942,10 +17126,10 @@
           <cell r="A131">
             <v>40999</v>
           </cell>
-          <cell r="D131">
+          <cell r="E131">
             <v>18611.532191187849</v>
           </cell>
-          <cell r="E131">
+          <cell r="G131">
             <v>14644.136182182729</v>
           </cell>
         </row>
@@ -16953,10 +17137,10 @@
           <cell r="A132">
             <v>41029</v>
           </cell>
-          <cell r="D132">
+          <cell r="E132">
             <v>18566.314764362978</v>
           </cell>
-          <cell r="E132">
+          <cell r="G132">
             <v>14578.237569362907</v>
           </cell>
         </row>
@@ -16964,10 +17148,10 @@
           <cell r="A133">
             <v>41060</v>
           </cell>
-          <cell r="D133">
+          <cell r="E133">
             <v>17847.249969053635</v>
           </cell>
-          <cell r="E133">
+          <cell r="G133">
             <v>13919.301231227704</v>
           </cell>
         </row>
@@ -16975,10 +17159,10 @@
           <cell r="A134">
             <v>41090</v>
           </cell>
-          <cell r="D134">
+          <cell r="E134">
             <v>18389.279194002513</v>
           </cell>
-          <cell r="E134">
+          <cell r="G134">
             <v>14289.554643978361</v>
           </cell>
         </row>
@@ -16986,10 +17170,10 @@
           <cell r="A135">
             <v>41121</v>
           </cell>
-          <cell r="D135">
+          <cell r="E135">
             <v>18646.185918086969</v>
           </cell>
-          <cell r="E135">
+          <cell r="G135">
             <v>14442.452878668928</v>
           </cell>
         </row>
@@ -16997,10 +17181,10 @@
           <cell r="A136">
             <v>41152</v>
           </cell>
-          <cell r="D136">
+          <cell r="E136">
             <v>18951.432593971829</v>
           </cell>
-          <cell r="E136">
+          <cell r="G136">
             <v>14628.760520803757</v>
           </cell>
         </row>
@@ -17008,10 +17192,10 @@
           <cell r="A137">
             <v>41182</v>
           </cell>
-          <cell r="D137">
+          <cell r="E137">
             <v>19326.111169749485</v>
           </cell>
-          <cell r="E137">
+          <cell r="G137">
             <v>14890.615334126145</v>
           </cell>
         </row>
@@ -17019,10 +17203,10 @@
           <cell r="A138">
             <v>41213</v>
           </cell>
-          <cell r="D138">
+          <cell r="E138">
             <v>19300.416368347214</v>
           </cell>
-          <cell r="E138">
+          <cell r="G138">
             <v>14860.834103457893</v>
           </cell>
         </row>
@@ -17030,10 +17214,10 @@
           <cell r="A139">
             <v>41243</v>
           </cell>
-          <cell r="D139">
+          <cell r="E139">
             <v>19303.706353715264</v>
           </cell>
-          <cell r="E139">
+          <cell r="G139">
             <v>14963.373858771751</v>
           </cell>
         </row>
@@ -17041,10 +17225,10 @@
           <cell r="A140">
             <v>41274</v>
           </cell>
-          <cell r="D140">
+          <cell r="E140">
             <v>19606.204348383013</v>
           </cell>
-          <cell r="E140">
+          <cell r="G140">
             <v>15147.423357234644</v>
           </cell>
         </row>
@@ -17052,10 +17236,10 @@
           <cell r="A141">
             <v>41305</v>
           </cell>
-          <cell r="D141">
+          <cell r="E141">
             <v>20197.732589398242</v>
           </cell>
-          <cell r="E141">
+          <cell r="G141">
             <v>15510.961517808275</v>
           </cell>
         </row>
@@ -17063,10 +17247,10 @@
           <cell r="A142">
             <v>41333</v>
           </cell>
-          <cell r="D142">
+          <cell r="E142">
             <v>20124.424149141647</v>
           </cell>
-          <cell r="E142">
+          <cell r="G142">
             <v>15529.574671629647</v>
           </cell>
         </row>
@@ -17074,10 +17258,10 @@
           <cell r="A143">
             <v>41364</v>
           </cell>
-          <cell r="D143">
+          <cell r="E143">
             <v>20431.733401081845</v>
           </cell>
-          <cell r="E143">
+          <cell r="G143">
             <v>15681.764503411618</v>
           </cell>
         </row>
@@ -17085,10 +17269,10 @@
           <cell r="A144">
             <v>41394</v>
           </cell>
-          <cell r="D144">
+          <cell r="E144">
             <v>20625.231353514631</v>
           </cell>
-          <cell r="E144">
+          <cell r="G144">
             <v>15929.536382565522</v>
           </cell>
         </row>
@@ -17096,10 +17280,10 @@
           <cell r="A145">
             <v>41425</v>
           </cell>
-          <cell r="D145">
+          <cell r="E145">
             <v>20455.495225973675</v>
           </cell>
-          <cell r="E145">
+          <cell r="G145">
             <v>15904.049124353416</v>
           </cell>
         </row>
@@ -17107,10 +17291,10 @@
           <cell r="A146">
             <v>41455</v>
           </cell>
-          <cell r="D146">
+          <cell r="E146">
             <v>20233.971660776166</v>
           </cell>
-          <cell r="E146">
+          <cell r="G146">
             <v>15647.993933451326</v>
           </cell>
         </row>
@@ -17118,10 +17302,10 @@
           <cell r="A147">
             <v>41486</v>
           </cell>
-          <cell r="D147">
+          <cell r="E147">
             <v>20992.14792468668</v>
           </cell>
-          <cell r="E147">
+          <cell r="G147">
             <v>16056.406575114406</v>
           </cell>
         </row>
@@ -17129,10 +17313,10 @@
           <cell r="A148">
             <v>41517</v>
           </cell>
-          <cell r="D148">
+          <cell r="E148">
             <v>20936.948271616722</v>
           </cell>
-          <cell r="E148">
+          <cell r="G148">
             <v>15892.63122804824</v>
           </cell>
         </row>
@@ -17140,10 +17324,10 @@
           <cell r="A149">
             <v>41547</v>
           </cell>
-          <cell r="D149">
+          <cell r="E149">
             <v>21650.279769706744</v>
           </cell>
-          <cell r="E149">
+          <cell r="G149">
             <v>16334.446376187982</v>
           </cell>
         </row>
@@ -17151,10 +17335,10 @@
           <cell r="A150">
             <v>41578</v>
           </cell>
-          <cell r="D150">
+          <cell r="E150">
             <v>22143.266640016594</v>
           </cell>
-          <cell r="E150">
+          <cell r="G150">
             <v>16688.903862551262</v>
           </cell>
         </row>
@@ -17162,10 +17346,10 @@
           <cell r="A151">
             <v>41608</v>
           </cell>
-          <cell r="D151">
+          <cell r="E151">
             <v>22138.183916346581</v>
           </cell>
-          <cell r="E151">
+          <cell r="G151">
             <v>16827.421764610437</v>
           </cell>
         </row>
@@ -17173,10 +17357,10 @@
           <cell r="A152">
             <v>41639</v>
           </cell>
-          <cell r="D152">
+          <cell r="E152">
             <v>22385.477656001727</v>
           </cell>
-          <cell r="E152">
+          <cell r="G152">
             <v>16970.454849609625</v>
           </cell>
         </row>
@@ -17184,10 +17368,10 @@
           <cell r="A153">
             <v>41670</v>
           </cell>
-          <cell r="D153">
+          <cell r="E153">
             <v>21968.446546801399</v>
           </cell>
-          <cell r="E153">
+          <cell r="G153">
             <v>16654.804389406887</v>
           </cell>
         </row>
@@ -17195,10 +17379,10 @@
           <cell r="A154">
             <v>41698</v>
           </cell>
-          <cell r="D154">
+          <cell r="E154">
             <v>22444.512930380883</v>
           </cell>
-          <cell r="E154">
+          <cell r="G154">
             <v>17079.501901336764</v>
           </cell>
         </row>
@@ -17206,10 +17390,10 @@
           <cell r="A155">
             <v>41729</v>
           </cell>
-          <cell r="D155">
+          <cell r="E155">
             <v>22744.606435058606</v>
           </cell>
-          <cell r="E155">
+          <cell r="G155">
             <v>17117.076805519704</v>
           </cell>
         </row>
@@ -17217,10 +17401,10 @@
           <cell r="A156">
             <v>41759</v>
           </cell>
-          <cell r="D156">
+          <cell r="E156">
             <v>22962.282824049529</v>
           </cell>
-          <cell r="E156">
+          <cell r="G156">
             <v>17219.779266352823</v>
           </cell>
         </row>
@@ -17228,10 +17412,10 @@
           <cell r="A157">
             <v>41790</v>
           </cell>
-          <cell r="D157">
+          <cell r="E157">
             <v>23294.557662462543</v>
           </cell>
-          <cell r="E157">
+          <cell r="G157">
             <v>17435.026507182232</v>
           </cell>
         </row>
@@ -17239,10 +17423,10 @@
           <cell r="A158">
             <v>41820</v>
           </cell>
-          <cell r="D158">
+          <cell r="E158">
             <v>23647.946861624096</v>
           </cell>
-          <cell r="E158">
+          <cell r="G158">
             <v>17602.402761651181</v>
           </cell>
         </row>
@@ -17250,10 +17434,10 @@
           <cell r="A159">
             <v>41851</v>
           </cell>
-          <cell r="D159">
+          <cell r="E159">
             <v>23148.276667085378</v>
           </cell>
-          <cell r="E159">
+          <cell r="G159">
             <v>17493.267864528945</v>
           </cell>
         </row>
@@ -17261,10 +17445,10 @@
           <cell r="A160">
             <v>41882</v>
           </cell>
-          <cell r="D160">
+          <cell r="E160">
             <v>23578.15085665006</v>
           </cell>
-          <cell r="E160">
+          <cell r="G160">
             <v>17706.685732476199</v>
           </cell>
         </row>
@@ -17272,10 +17456,10 @@
           <cell r="A161">
             <v>41912</v>
           </cell>
-          <cell r="D161">
+          <cell r="E161">
             <v>23195.488358656254</v>
           </cell>
-          <cell r="E161">
+          <cell r="G161">
             <v>17412.754749317093</v>
           </cell>
         </row>
@@ -17283,10 +17467,10 @@
           <cell r="A162">
             <v>41943</v>
           </cell>
-          <cell r="D162">
+          <cell r="E162">
             <v>23034.754337994073</v>
           </cell>
-          <cell r="E162">
+          <cell r="G162">
             <v>17496.335972113815</v>
           </cell>
         </row>
@@ -17294,10 +17478,10 @@
           <cell r="A163">
             <v>41973</v>
           </cell>
-          <cell r="D163">
+          <cell r="E163">
             <v>23326.615314879029</v>
           </cell>
-          <cell r="E163">
+          <cell r="G163">
             <v>17664.300797446107</v>
           </cell>
         </row>
@@ -17305,10 +17489,10 @@
           <cell r="A164">
             <v>42004</v>
           </cell>
-          <cell r="D164">
+          <cell r="E164">
             <v>22976.027060925364</v>
           </cell>
-          <cell r="E164">
+          <cell r="G164">
             <v>17473.52634883369</v>
           </cell>
         </row>
@@ -17316,10 +17500,10 @@
           <cell r="A165">
             <v>42035</v>
           </cell>
-          <cell r="D165">
+          <cell r="E165">
             <v>23000.622022177835</v>
           </cell>
-          <cell r="E165">
+          <cell r="G165">
             <v>17389.653422359286</v>
           </cell>
         </row>
@@ -17327,10 +17511,10 @@
           <cell r="A166">
             <v>42063</v>
           </cell>
-          <cell r="D166">
+          <cell r="E166">
             <v>23593.358675346699</v>
           </cell>
-          <cell r="E166">
+          <cell r="G166">
             <v>17878.302683527581</v>
           </cell>
         </row>
@@ -17338,10 +17522,10 @@
           <cell r="A167">
             <v>42094</v>
           </cell>
-          <cell r="D167">
+          <cell r="E167">
             <v>23061.811201825036</v>
           </cell>
-          <cell r="E167">
+          <cell r="G167">
             <v>17760.305885816299</v>
           </cell>
         </row>
@@ -17349,10 +17533,10 @@
           <cell r="A168">
             <v>42124</v>
           </cell>
-          <cell r="D168">
+          <cell r="E168">
             <v>23420.894254157196</v>
           </cell>
-          <cell r="E168">
+          <cell r="G168">
             <v>18033.814596457873</v>
           </cell>
         </row>
@@ -17360,10 +17544,10 @@
           <cell r="A169">
             <v>42155</v>
           </cell>
-          <cell r="D169">
+          <cell r="E169">
             <v>23668.463924198695</v>
           </cell>
-          <cell r="E169">
+          <cell r="G169">
             <v>18037.421359377164</v>
           </cell>
         </row>
@@ -17371,10 +17555,10 @@
           <cell r="A170">
             <v>42185</v>
           </cell>
-          <cell r="D170">
+          <cell r="E170">
             <v>23364.808464175159</v>
           </cell>
-          <cell r="E170">
+          <cell r="G170">
             <v>17815.561076656824</v>
           </cell>
         </row>
@@ -17382,10 +17566,10 @@
           <cell r="A171">
             <v>42216</v>
           </cell>
-          <cell r="D171">
+          <cell r="E171">
             <v>23618.794724050578</v>
           </cell>
-          <cell r="E171">
+          <cell r="G171">
             <v>17904.638882040108</v>
           </cell>
         </row>
@@ -17393,10 +17577,10 @@
           <cell r="A172">
             <v>42247</v>
           </cell>
-          <cell r="D172">
+          <cell r="E172">
             <v>22595.403257839913</v>
           </cell>
-          <cell r="E172">
+          <cell r="G172">
             <v>17285.138376721519</v>
           </cell>
         </row>
@@ -17404,10 +17588,10 @@
           <cell r="A173">
             <v>42277</v>
           </cell>
-          <cell r="D173">
+          <cell r="E173">
             <v>22447.865711058825</v>
           </cell>
-          <cell r="E173">
+          <cell r="G173">
             <v>17006.847648856303</v>
           </cell>
         </row>
@@ -17415,10 +17599,10 @@
           <cell r="A174">
             <v>42308</v>
           </cell>
-          <cell r="D174">
+          <cell r="E174">
             <v>23482.049252714434</v>
           </cell>
-          <cell r="E174">
+          <cell r="G174">
             <v>17687.121554810554</v>
           </cell>
         </row>
@@ -17426,10 +17610,10 @@
           <cell r="A175">
             <v>42338</v>
           </cell>
-          <cell r="D175">
+          <cell r="E175">
             <v>23413.257694425654</v>
           </cell>
-          <cell r="E175">
+          <cell r="G175">
             <v>17616.373068591311</v>
           </cell>
         </row>
@@ -17437,10 +17621,10 @@
           <cell r="A176">
             <v>42369</v>
           </cell>
-          <cell r="D176">
+          <cell r="E176">
             <v>23199.505465923387</v>
           </cell>
-          <cell r="E176">
+          <cell r="G176">
             <v>17447.255887132833</v>
           </cell>
         </row>
@@ -17448,10 +17632,10 @@
           <cell r="A177">
             <v>42400</v>
           </cell>
-          <cell r="D177">
+          <cell r="E177">
             <v>22897.226625221156</v>
           </cell>
-          <cell r="E177">
+          <cell r="G177">
             <v>16958.732722293113</v>
           </cell>
         </row>
@@ -17459,10 +17643,10 @@
           <cell r="A178">
             <v>42429</v>
           </cell>
-          <cell r="D178">
+          <cell r="E178">
             <v>22738.559420608864</v>
           </cell>
-          <cell r="E178">
+          <cell r="G178">
             <v>16907.856524126233</v>
           </cell>
         </row>
@@ -17470,10 +17654,10 @@
           <cell r="A179">
             <v>42460</v>
           </cell>
-          <cell r="D179">
+          <cell r="E179">
             <v>23683.811838337959</v>
           </cell>
-          <cell r="E179">
+          <cell r="G179">
             <v>17596.006284658171</v>
           </cell>
         </row>
@@ -17481,10 +17665,10 @@
           <cell r="A180">
             <v>42490</v>
           </cell>
-          <cell r="D180">
+          <cell r="E180">
             <v>23856.004089615592</v>
           </cell>
-          <cell r="E180">
+          <cell r="G180">
             <v>17756.129941848561</v>
           </cell>
         </row>
@@ -17492,10 +17676,10 @@
           <cell r="A181">
             <v>42521</v>
           </cell>
-          <cell r="D181">
+          <cell r="E181">
             <v>23965.037047051184</v>
           </cell>
-          <cell r="E181">
+          <cell r="G181">
             <v>17772.110458796222</v>
           </cell>
         </row>
@@ -17503,10 +17687,10 @@
           <cell r="A182">
             <v>42551</v>
           </cell>
-          <cell r="D182">
+          <cell r="E182">
             <v>23928.381609476</v>
           </cell>
-          <cell r="E182">
+          <cell r="G182">
             <v>17773.887669842101</v>
           </cell>
         </row>
@@ -17514,10 +17698,10 @@
           <cell r="A183">
             <v>42582</v>
           </cell>
-          <cell r="D183">
+          <cell r="E183">
             <v>24164.565788137712</v>
           </cell>
-          <cell r="E183">
+          <cell r="G183">
             <v>18173.800142413547</v>
           </cell>
         </row>
@@ -17525,10 +17709,10 @@
           <cell r="A184">
             <v>42613</v>
           </cell>
-          <cell r="D184">
+          <cell r="E184">
             <v>24272.592558476957</v>
           </cell>
-          <cell r="E184">
+          <cell r="G184">
             <v>18204.695602655651</v>
           </cell>
         </row>
@@ -17536,10 +17720,10 @@
           <cell r="A185">
             <v>42643</v>
           </cell>
-          <cell r="D185">
+          <cell r="E185">
             <v>24262.166554839096</v>
           </cell>
-          <cell r="E185">
+          <cell r="G185">
             <v>18270.23250682521</v>
           </cell>
         </row>
@@ -17547,10 +17731,10 @@
           <cell r="A186">
             <v>42674</v>
           </cell>
-          <cell r="D186">
+          <cell r="E186">
             <v>23943.615514320722</v>
           </cell>
-          <cell r="E186">
+          <cell r="G186">
             <v>18118.58957701856</v>
           </cell>
         </row>
@@ -17558,10 +17742,10 @@
           <cell r="A187">
             <v>42704</v>
           </cell>
-          <cell r="D187">
+          <cell r="E187">
             <v>23804.035295084737</v>
           </cell>
-          <cell r="E187">
+          <cell r="G187">
             <v>18154.826756172595</v>
           </cell>
         </row>
@@ -17569,10 +17753,10 @@
           <cell r="A188">
             <v>42735</v>
           </cell>
-          <cell r="D188">
+          <cell r="E188">
             <v>24398.43305114541</v>
           </cell>
-          <cell r="E188">
+          <cell r="G188">
             <v>18365.422746544198</v>
           </cell>
         </row>
@@ -17580,10 +17764,10 @@
           <cell r="A189">
             <v>42766</v>
           </cell>
-          <cell r="D189">
+          <cell r="E189">
             <v>24773.448236427717</v>
           </cell>
-          <cell r="E189">
+          <cell r="G189">
             <v>18640.904087742358</v>
           </cell>
         </row>
@@ -17591,10 +17775,10 @@
           <cell r="A190">
             <v>42794</v>
           </cell>
-          <cell r="D190">
+          <cell r="E190">
             <v>25045.224406081667</v>
           </cell>
-          <cell r="E190">
+          <cell r="G190">
             <v>18935.430372328687</v>
           </cell>
         </row>
@@ -17602,10 +17786,10 @@
           <cell r="A191">
             <v>42825</v>
           </cell>
-          <cell r="D191">
+          <cell r="E191">
             <v>25337.513742930489</v>
           </cell>
-          <cell r="E191">
+          <cell r="G191">
             <v>19062.297755823289</v>
           </cell>
         </row>
@@ -17613,10 +17797,10 @@
           <cell r="A192">
             <v>42855</v>
           </cell>
-          <cell r="D192">
+          <cell r="E192">
             <v>25691.490512953329</v>
           </cell>
-          <cell r="E192">
+          <cell r="G192">
             <v>19237.670895176863</v>
           </cell>
         </row>
@@ -17624,10 +17808,10 @@
           <cell r="A193">
             <v>42886</v>
           </cell>
-          <cell r="D193">
+          <cell r="E193">
             <v>26212.268892181783</v>
           </cell>
-          <cell r="E193">
+          <cell r="G193">
             <v>19481.989315545608</v>
           </cell>
         </row>
@@ -17635,10 +17819,10 @@
           <cell r="A194">
             <v>42916</v>
           </cell>
-          <cell r="D194">
+          <cell r="E194">
             <v>26109.266782506464</v>
           </cell>
-          <cell r="E194">
+          <cell r="G194">
             <v>19538.487084560689</v>
           </cell>
         </row>
@@ -17646,10 +17830,10 @@
           <cell r="A195">
             <v>42947</v>
           </cell>
-          <cell r="D195">
+          <cell r="E195">
             <v>26228.598191198278</v>
           </cell>
-          <cell r="E195">
+          <cell r="G195">
             <v>19851.102877913661</v>
           </cell>
         </row>
@@ -17657,10 +17841,10 @@
           <cell r="A196">
             <v>42978</v>
           </cell>
-          <cell r="D196">
+          <cell r="E196">
             <v>26272.412064790802</v>
           </cell>
-          <cell r="E196">
+          <cell r="G196">
             <v>19914.626407122985</v>
           </cell>
         </row>
@@ -17668,10 +17852,10 @@
           <cell r="A197">
             <v>43008</v>
           </cell>
-          <cell r="D197">
+          <cell r="E197">
             <v>26576.396007230655</v>
           </cell>
-          <cell r="E197">
+          <cell r="G197">
             <v>20107.798283272077</v>
           </cell>
         </row>
@@ -17679,10 +17863,10 @@
           <cell r="A198">
             <v>43039</v>
           </cell>
-          <cell r="D198">
+          <cell r="E198">
             <v>26631.421422221665</v>
           </cell>
-          <cell r="E198">
+          <cell r="G198">
             <v>20324.962504731415</v>
           </cell>
         </row>
@@ -17690,10 +17874,10 @@
           <cell r="A199">
             <v>43069</v>
           </cell>
-          <cell r="D199">
+          <cell r="E199">
             <v>26795.749593068267</v>
           </cell>
-          <cell r="E199">
+          <cell r="G199">
             <v>20503.822174773049</v>
           </cell>
         </row>
@@ -17701,10 +17885,10 @@
           <cell r="A200">
             <v>43100</v>
           </cell>
-          <cell r="D200">
+          <cell r="E200">
             <v>27151.341566740604</v>
           </cell>
-          <cell r="E200">
+          <cell r="G200">
             <v>20682.205427693574</v>
           </cell>
         </row>
@@ -17712,10 +17896,10 @@
           <cell r="A201">
             <v>43131</v>
           </cell>
-          <cell r="D201">
+          <cell r="E201">
             <v>27777.735557500462</v>
           </cell>
-          <cell r="E201">
+          <cell r="G201">
             <v>21246.82963586961</v>
           </cell>
         </row>
@@ -17723,10 +17907,10 @@
           <cell r="A202">
             <v>43159</v>
           </cell>
-          <cell r="D202">
+          <cell r="E202">
             <v>27182.47151464078</v>
           </cell>
-          <cell r="E202">
+          <cell r="G202">
             <v>20779.399383880478</v>
           </cell>
         </row>
@@ -17734,10 +17918,10 @@
           <cell r="A203">
             <v>43190</v>
           </cell>
-          <cell r="D203">
+          <cell r="E203">
             <v>27208.85106720361</v>
           </cell>
-          <cell r="E203">
+          <cell r="G203">
             <v>20565.371570226511</v>
           </cell>
         </row>
@@ -17745,10 +17929,10 @@
           <cell r="A204">
             <v>43220</v>
           </cell>
-          <cell r="D204">
+          <cell r="E204">
             <v>27344.091624385579</v>
           </cell>
-          <cell r="E204">
+          <cell r="G204">
             <v>20680.537651019782</v>
           </cell>
         </row>
@@ -17756,10 +17940,10 @@
           <cell r="A205">
             <v>43251</v>
           </cell>
-          <cell r="D205">
+          <cell r="E205">
             <v>27143.672062622474</v>
           </cell>
-          <cell r="E205">
+          <cell r="G205">
             <v>20742.579263972839</v>
           </cell>
         </row>
@@ -17767,10 +17951,10 @@
           <cell r="A206">
             <v>43281</v>
           </cell>
-          <cell r="D206">
+          <cell r="E206">
             <v>27351.876564615504</v>
           </cell>
-          <cell r="E206">
+          <cell r="G206">
             <v>20688.648557886507</v>
           </cell>
         </row>
@@ -17778,10 +17962,10 @@
           <cell r="A207">
             <v>43312</v>
           </cell>
-          <cell r="D207">
+          <cell r="E207">
             <v>27457.740960359955</v>
           </cell>
-          <cell r="E207">
+          <cell r="G207">
             <v>21023.804664524268</v>
           </cell>
         </row>
@@ -17789,10 +17973,10 @@
           <cell r="A208">
             <v>43343</v>
           </cell>
-          <cell r="D208">
+          <cell r="E208">
             <v>27621.676356229938</v>
           </cell>
-          <cell r="E208">
+          <cell r="G208">
             <v>21156.254633910772</v>
           </cell>
         </row>
@@ -17800,10 +17984,10 @@
           <cell r="A209">
             <v>43373</v>
           </cell>
-          <cell r="D209">
+          <cell r="E209">
             <v>27712.011995970854</v>
           </cell>
-          <cell r="E209">
+          <cell r="G209">
             <v>21211.260895958938</v>
           </cell>
         </row>
@@ -17811,10 +17995,10 @@
           <cell r="A210">
             <v>43404</v>
           </cell>
-          <cell r="D210">
+          <cell r="E210">
             <v>27248.402835059042</v>
           </cell>
-          <cell r="E210">
+          <cell r="G210">
             <v>20422.201990629266</v>
           </cell>
         </row>
@@ -17822,10 +18006,10 @@
           <cell r="A211">
             <v>43434</v>
           </cell>
-          <cell r="D211">
+          <cell r="E211">
             <v>27411.088385630701</v>
           </cell>
-          <cell r="E211">
+          <cell r="G211">
             <v>20589.664046952425</v>
           </cell>
         </row>
@@ -17833,10 +18017,10 @@
           <cell r="A212">
             <v>43465</v>
           </cell>
-          <cell r="D212">
+          <cell r="E212">
             <v>26587.946062198691</v>
           </cell>
-          <cell r="E212">
+          <cell r="G212">
             <v>19943.14859587812</v>
           </cell>
         </row>
@@ -17844,10 +18028,10 @@
           <cell r="A213">
             <v>43496</v>
           </cell>
-          <cell r="D213">
+          <cell r="E213">
             <v>27432.657389185595</v>
           </cell>
-          <cell r="E213">
+          <cell r="G213">
             <v>20800.703985500877</v>
           </cell>
         </row>
@@ -17855,10 +18039,10 @@
           <cell r="A214">
             <v>43524</v>
           </cell>
-          <cell r="D214">
+          <cell r="E214">
             <v>27862.539801225026</v>
           </cell>
-          <cell r="E214">
+          <cell r="G214">
             <v>21110.634474884839</v>
           </cell>
         </row>
@@ -17866,10 +18050,10 @@
           <cell r="A215">
             <v>43555</v>
           </cell>
-          <cell r="D215">
+          <cell r="E215">
             <v>28215.571049813963</v>
           </cell>
-          <cell r="E215">
+          <cell r="G215">
             <v>21323.851883081177</v>
           </cell>
         </row>
@@ -17877,10 +18061,10 @@
           <cell r="A216">
             <v>43585</v>
           </cell>
-          <cell r="D216">
+          <cell r="E216">
             <v>28355.815470299021</v>
           </cell>
-          <cell r="E216">
+          <cell r="G216">
             <v>21718.343142918176</v>
           </cell>
         </row>
@@ -17888,10 +18072,10 @@
           <cell r="A217">
             <v>43616</v>
           </cell>
-          <cell r="D217">
+          <cell r="E217">
             <v>27799.203909761418</v>
           </cell>
-          <cell r="E217">
+          <cell r="G217">
             <v>21147.150718259429</v>
           </cell>
         </row>
@@ -17899,10 +18083,10 @@
           <cell r="A218">
             <v>43646</v>
           </cell>
-          <cell r="D218">
+          <cell r="E218">
             <v>28737.995865847533</v>
           </cell>
-          <cell r="E218">
+          <cell r="G218">
             <v>21916.907004404071</v>
           </cell>
         </row>
@@ -17910,10 +18094,10 @@
           <cell r="A219">
             <v>43677</v>
           </cell>
-          <cell r="D219">
+          <cell r="E219">
             <v>28906.701175248068</v>
           </cell>
-          <cell r="E219">
+          <cell r="G219">
             <v>21960.74081841288</v>
           </cell>
         </row>
@@ -17921,10 +18105,10 @@
           <cell r="A220">
             <v>43708</v>
           </cell>
-          <cell r="D220">
+          <cell r="E220">
             <v>28900.065985568337</v>
           </cell>
-          <cell r="E220">
+          <cell r="G220">
             <v>21791.643114111099</v>
           </cell>
         </row>
@@ -17932,10 +18116,10 @@
           <cell r="A221">
             <v>43738</v>
           </cell>
-          <cell r="D221">
+          <cell r="E221">
             <v>29136.192873196302</v>
           </cell>
-          <cell r="E221">
+          <cell r="G221">
             <v>22033.530352677735</v>
           </cell>
         </row>
@@ -17943,10 +18127,10 @@
           <cell r="A222">
             <v>43769</v>
           </cell>
-          <cell r="D222">
+          <cell r="E222">
             <v>29074.146239965889</v>
           </cell>
-          <cell r="E222">
+          <cell r="G222">
             <v>22381.660132250043</v>
           </cell>
         </row>
@@ -17954,10 +18138,10 @@
           <cell r="A223">
             <v>43799</v>
           </cell>
-          <cell r="D223">
+          <cell r="E223">
             <v>29113.991249245686</v>
           </cell>
-          <cell r="E223">
+          <cell r="G223">
             <v>22668.145381942843</v>
           </cell>
         </row>
@@ -17965,10 +18149,10 @@
           <cell r="A224">
             <v>43830</v>
           </cell>
-          <cell r="D224">
+          <cell r="E224">
             <v>29776.930277325897</v>
           </cell>
-          <cell r="E224">
+          <cell r="G224">
             <v>23105.640587814341</v>
           </cell>
         </row>
@@ -17976,10 +18160,10 @@
           <cell r="A225">
             <v>43861</v>
           </cell>
-          <cell r="D225">
+          <cell r="E225">
             <v>29481.259113208962</v>
           </cell>
-          <cell r="E225">
+          <cell r="G225">
             <v>23043.255358227241</v>
           </cell>
         </row>
@@ -17987,10 +18171,10 @@
           <cell r="A226">
             <v>43890</v>
           </cell>
-          <cell r="D226">
+          <cell r="E226">
             <v>27752.786508372163</v>
           </cell>
-          <cell r="E226">
+          <cell r="G226">
             <v>22188.350584437008</v>
           </cell>
         </row>
@@ -17998,10 +18182,10 @@
           <cell r="A227">
             <v>43921</v>
           </cell>
-          <cell r="D227">
+          <cell r="E227">
             <v>25598.350510341174</v>
           </cell>
-          <cell r="E227">
+          <cell r="G227">
             <v>20537.537300954893</v>
           </cell>
         </row>
@@ -18009,10 +18193,10 @@
           <cell r="A228">
             <v>43951</v>
           </cell>
-          <cell r="D228">
+          <cell r="E228">
             <v>26992.692662639456</v>
           </cell>
-          <cell r="E228">
+          <cell r="G228">
             <v>21829.348397184956</v>
           </cell>
         </row>
@@ -18020,10 +18204,10 @@
           <cell r="A229">
             <v>43982</v>
           </cell>
-          <cell r="D229">
+          <cell r="E229">
             <v>27974.416894779653</v>
           </cell>
-          <cell r="E229">
+          <cell r="G229">
             <v>22414.374934229512</v>
           </cell>
         </row>
@@ -18031,10 +18215,10 @@
           <cell r="A230">
             <v>44012</v>
           </cell>
-          <cell r="D230">
+          <cell r="E230">
             <v>28264.511597978519</v>
           </cell>
-          <cell r="E230">
+          <cell r="G230">
             <v>22835.765182993026</v>
           </cell>
         </row>
@@ -18042,10 +18226,10 @@
           <cell r="A231">
             <v>44043</v>
           </cell>
-          <cell r="D231">
+          <cell r="E231">
             <v>28851.578558840953</v>
           </cell>
-          <cell r="E231">
+          <cell r="G231">
             <v>23486.584490708326</v>
           </cell>
         </row>
@@ -18053,10 +18237,10 @@
           <cell r="A232">
             <v>44074</v>
           </cell>
-          <cell r="D232">
+          <cell r="E232">
             <v>29297.925805276449</v>
           </cell>
-          <cell r="E232">
+          <cell r="G232">
             <v>24226.411902165641</v>
           </cell>
         </row>
@@ -18064,10 +18248,10 @@
           <cell r="A233">
             <v>44104</v>
           </cell>
-          <cell r="D233">
+          <cell r="E233">
             <v>28763.838150137875</v>
           </cell>
-          <cell r="E233">
+          <cell r="G233">
             <v>23833.944029350558</v>
           </cell>
         </row>
@@ -18075,10 +18259,10 @@
           <cell r="A234">
             <v>44135</v>
           </cell>
-          <cell r="D234">
+          <cell r="E234">
             <v>28371.800321755687</v>
           </cell>
-          <cell r="E234">
+          <cell r="G234">
             <v>23562.237067415961</v>
           </cell>
         </row>
@@ -18086,10 +18270,10 @@
           <cell r="A235">
             <v>44165</v>
           </cell>
-          <cell r="D235">
+          <cell r="E235">
             <v>30419.406255504335</v>
           </cell>
-          <cell r="E235">
+          <cell r="G235">
             <v>25041.945555249684</v>
           </cell>
         </row>
@@ -18097,18 +18281,118 @@
           <cell r="A236">
             <v>44196</v>
           </cell>
-          <cell r="D236">
+          <cell r="E236">
             <v>31224.621989374878</v>
           </cell>
-          <cell r="E236">
+          <cell r="G236">
             <v>25642.952248575675</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237">
+            <v>44227</v>
+          </cell>
+          <cell r="E237">
+            <v>31227.744451573817</v>
+          </cell>
+          <cell r="G237">
+            <v>25591.666344078523</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238">
+            <v>44255</v>
+          </cell>
+          <cell r="E238">
+            <v>31686.79229501195</v>
+          </cell>
+          <cell r="G238">
+            <v>25893.648006938649</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239">
+            <v>44286</v>
+          </cell>
+          <cell r="E239">
+            <v>32808.504742255376</v>
+          </cell>
+          <cell r="G239">
+            <v>26232.854795829549</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="G2">
-            <v>198</v>
+            <v>201</v>
+          </cell>
+          <cell r="H2">
+            <v>201</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>0.21066268383916142</v>
+          </cell>
+          <cell r="H3">
+            <v>0.16381013549841528</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>0.43988255366998552</v>
+          </cell>
+          <cell r="H4">
+            <v>0.50000039315173628</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>-2.3163269199505065E-2</v>
+          </cell>
+          <cell r="H5">
+            <v>-0.1769816940587815</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>0.11233401200793985</v>
+          </cell>
+          <cell r="H6">
+            <v>0.10516145294162252</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>0.98009950248756217</v>
+          </cell>
+          <cell r="H7">
+            <v>0.89054726368159209</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>0.21516974598940239</v>
+          </cell>
+          <cell r="H8">
+            <v>0.19041209982931129</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>1.9900497512437811E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>0.10945273631840796</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>-1.1310127060203595E-2</v>
+          </cell>
+          <cell r="H10">
+            <v>-5.2633119739329631E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -20699,7 +20983,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
-          <cell r="D2" t="str">
+          <cell r="C2" t="str">
             <v>50% MSCI ACWI/50% ML A-AAA 1-3yr US Corp.</v>
           </cell>
         </row>
@@ -20707,10 +20991,10 @@
           <cell r="A3">
             <v>37103</v>
           </cell>
+          <cell r="D3">
+            <v>10000</v>
+          </cell>
           <cell r="E3">
-            <v>10000</v>
-          </cell>
-          <cell r="G3">
             <v>10000</v>
           </cell>
         </row>
@@ -20718,10 +21002,10 @@
           <cell r="A4">
             <v>37134</v>
           </cell>
+          <cell r="D4">
+            <v>9591</v>
+          </cell>
           <cell r="E4">
-            <v>9591</v>
-          </cell>
-          <cell r="G4">
             <v>9723</v>
           </cell>
         </row>
@@ -20729,97 +21013,43 @@
           <cell r="A5">
             <v>37164</v>
           </cell>
+          <cell r="D5">
+            <v>9227.5010999999995</v>
+          </cell>
           <cell r="E5">
-            <v>9227.5010999999995</v>
-          </cell>
-          <cell r="G5">
             <v>9395.3348999999998</v>
-          </cell>
-          <cell r="P5">
-            <v>5.0725442038000113</v>
-          </cell>
-          <cell r="Q5">
-            <v>28.166479824555335</v>
-          </cell>
-          <cell r="R5">
-            <v>6.4368659234335102</v>
-          </cell>
-          <cell r="S5">
-            <v>6.7350277001640313</v>
-          </cell>
-          <cell r="T5">
-            <v>6.2240761092679842</v>
-          </cell>
-          <cell r="U5">
-            <v>6.2274114039540418</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
             <v>37195</v>
           </cell>
+          <cell r="D6">
+            <v>9477.5663798099977</v>
+          </cell>
           <cell r="E6">
-            <v>9477.5663798099977</v>
-          </cell>
-          <cell r="G6">
             <v>9532.5067895399989</v>
-          </cell>
-          <cell r="P6">
-            <v>4.4493497863999698</v>
-          </cell>
-          <cell r="Q6">
-            <v>25.483631091260396</v>
-          </cell>
-          <cell r="R6">
-            <v>5.7771408245477218</v>
-          </cell>
-          <cell r="S6">
-            <v>6.4524214189570772</v>
-          </cell>
-          <cell r="T6">
-            <v>4.9563676515188781</v>
-          </cell>
-          <cell r="U6">
-            <v>4.4401197769886158</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
             <v>37225</v>
           </cell>
+          <cell r="D7">
+            <v>9890.7882739697143</v>
+          </cell>
           <cell r="E7">
-            <v>9890.7882739697143</v>
-          </cell>
-          <cell r="G7">
             <v>9896.6485489004262</v>
-          </cell>
-          <cell r="P7">
-            <v>2.3004470840000124</v>
-          </cell>
-          <cell r="Q7">
-            <v>27.731258190386111</v>
-          </cell>
-          <cell r="R7">
-            <v>8.451691889062829</v>
-          </cell>
-          <cell r="S7">
-            <v>8.3144227137943005</v>
-          </cell>
-          <cell r="T7">
-            <v>6.174873888680299</v>
-          </cell>
-          <cell r="U7">
-            <v>5.0260982522815745</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
             <v>37256</v>
           </cell>
+          <cell r="D8">
+            <v>10090.582197103902</v>
+          </cell>
           <cell r="E8">
-            <v>10090.582197103902</v>
-          </cell>
-          <cell r="G8">
             <v>9942.1731322253672</v>
           </cell>
         </row>
@@ -20827,10 +21057,10 @@
           <cell r="A9">
             <v>37287</v>
           </cell>
+          <cell r="D9">
+            <v>9979.5857929357589</v>
+          </cell>
           <cell r="E9">
-            <v>9979.5857929357589</v>
-          </cell>
-          <cell r="G9">
             <v>9875.5605722394575</v>
           </cell>
         </row>
@@ -20838,10 +21068,10 @@
           <cell r="A10">
             <v>37315</v>
           </cell>
+          <cell r="D10">
+            <v>9798.9552900836225</v>
+          </cell>
           <cell r="E10">
-            <v>9798.9552900836225</v>
-          </cell>
-          <cell r="G10">
             <v>9798.5311997759891</v>
           </cell>
         </row>
@@ -20849,10 +21079,10 @@
           <cell r="A11">
             <v>37346</v>
           </cell>
+          <cell r="D11">
+            <v>9902.8242161585076</v>
+          </cell>
           <cell r="E11">
-            <v>9902.8242161585076</v>
-          </cell>
-          <cell r="G11">
             <v>9962.1666708122466</v>
           </cell>
         </row>
@@ -20860,10 +21090,10 @@
           <cell r="A12">
             <v>37376</v>
           </cell>
+          <cell r="D12">
+            <v>9884.9991325694227</v>
+          </cell>
           <cell r="E12">
-            <v>9884.9991325694227</v>
-          </cell>
-          <cell r="G12">
             <v>9726.0633207139963</v>
           </cell>
         </row>
@@ -20871,10 +21101,10 @@
           <cell r="A13">
             <v>37407</v>
           </cell>
+          <cell r="D13">
+            <v>9881.0451329163952</v>
+          </cell>
           <cell r="E13">
-            <v>9881.0451329163952</v>
-          </cell>
-          <cell r="G13">
             <v>9716.3372573932829</v>
           </cell>
         </row>
@@ -20882,10 +21112,10 @@
           <cell r="A14">
             <v>37437</v>
           </cell>
+          <cell r="D14">
+            <v>9680.4599167181932</v>
+          </cell>
           <cell r="E14">
-            <v>9680.4599167181932</v>
-          </cell>
-          <cell r="G14">
             <v>9406.3860988824363</v>
           </cell>
         </row>
@@ -20893,10 +21123,10 @@
           <cell r="A15">
             <v>37468</v>
           </cell>
+          <cell r="D15">
+            <v>9505.2435922255936</v>
+          </cell>
           <cell r="E15">
-            <v>9505.2435922255936</v>
-          </cell>
-          <cell r="G15">
             <v>9095.9753576193161</v>
           </cell>
         </row>
@@ -20904,10 +21134,10 @@
           <cell r="A16">
             <v>37499</v>
           </cell>
+          <cell r="D16">
+            <v>9508.0951653032607</v>
+          </cell>
           <cell r="E16">
-            <v>9508.0951653032607</v>
-          </cell>
-          <cell r="G16">
             <v>9152.3704048365562</v>
           </cell>
         </row>
@@ -20915,10 +21145,10 @@
           <cell r="A17">
             <v>37529</v>
           </cell>
+          <cell r="D17">
+            <v>9347.4083570096354</v>
+          </cell>
           <cell r="E17">
-            <v>9347.4083570096354</v>
-          </cell>
-          <cell r="G17">
             <v>8699.3280697971459</v>
           </cell>
         </row>
@@ -20926,24 +21156,21 @@
           <cell r="A18">
             <v>37560</v>
           </cell>
+          <cell r="D18">
+            <v>9340.8651711597286</v>
+          </cell>
           <cell r="E18">
-            <v>9340.8651711597286</v>
-          </cell>
-          <cell r="G18">
             <v>9082.0985048682214</v>
-          </cell>
-          <cell r="J18">
-            <v>0.79297385392544295</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
             <v>37590</v>
           </cell>
+          <cell r="D19">
+            <v>9504.3303116550251</v>
+          </cell>
           <cell r="E19">
-            <v>9504.3303116550251</v>
-          </cell>
-          <cell r="G19">
             <v>9368.1846077715709</v>
           </cell>
         </row>
@@ -20951,38 +21178,32 @@
           <cell r="A20">
             <v>37621</v>
           </cell>
+          <cell r="D20">
+            <v>9529.0415704653278</v>
+          </cell>
           <cell r="E20">
-            <v>9529.0415704653278</v>
-          </cell>
-          <cell r="G20">
             <v>9153.653180253601</v>
-          </cell>
-          <cell r="J20">
-            <v>2.2381825398488688E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
             <v>37652</v>
           </cell>
+          <cell r="D21">
+            <v>9533.8060912505607</v>
+          </cell>
           <cell r="E21">
-            <v>9533.8060912505607</v>
-          </cell>
-          <cell r="G21">
             <v>9049.3015339987105</v>
-          </cell>
-          <cell r="J21">
-            <v>0.78173173985449418</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
             <v>37680</v>
           </cell>
+          <cell r="D22">
+            <v>9570.9879350064384</v>
+          </cell>
           <cell r="E22">
-            <v>9570.9879350064384</v>
-          </cell>
-          <cell r="G22">
             <v>9016.7240484763151</v>
           </cell>
         </row>
@@ -20990,10 +21211,10 @@
           <cell r="A23">
             <v>37711</v>
           </cell>
+          <cell r="D23">
+            <v>9533.6610820599126</v>
+          </cell>
           <cell r="E23">
-            <v>9533.6610820599126</v>
-          </cell>
-          <cell r="G23">
             <v>9074.4310823865635</v>
           </cell>
         </row>
@@ -21001,10 +21222,10 @@
           <cell r="A24">
             <v>37741</v>
           </cell>
+          <cell r="D24">
+            <v>9772.0026091114087</v>
+          </cell>
           <cell r="E24">
-            <v>9772.0026091114087</v>
-          </cell>
-          <cell r="G24">
             <v>9467.3539482538999</v>
           </cell>
         </row>
@@ -21012,10 +21233,10 @@
           <cell r="A25">
             <v>37772</v>
           </cell>
+          <cell r="D25">
+            <v>10015.325474078281</v>
+          </cell>
           <cell r="E25">
-            <v>10015.325474078281</v>
-          </cell>
-          <cell r="G25">
             <v>9754.2147728859927</v>
           </cell>
         </row>
@@ -21023,10 +21244,10 @@
           <cell r="A26">
             <v>37802</v>
           </cell>
+          <cell r="D26">
+            <v>10204.615125538359</v>
+          </cell>
           <cell r="E26">
-            <v>10204.615125538359</v>
-          </cell>
-          <cell r="G26">
             <v>9828.3468051599266</v>
           </cell>
         </row>
@@ -21034,350 +21255,230 @@
           <cell r="A27">
             <v>37833</v>
           </cell>
+          <cell r="D27">
+            <v>10176.042203186851</v>
+          </cell>
           <cell r="E27">
-            <v>10176.042203186851</v>
-          </cell>
-          <cell r="G27">
             <v>9881.4198779077906</v>
-          </cell>
-          <cell r="L27">
-            <v>-5.5399999999999998E-2</v>
-          </cell>
-          <cell r="M27">
-            <v>-7.9310623692113391E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
             <v>37864</v>
           </cell>
+          <cell r="D28">
+            <v>10209.623142457369</v>
+          </cell>
           <cell r="E28">
-            <v>10209.623142457369</v>
-          </cell>
-          <cell r="G28">
             <v>9981.2222186746585</v>
-          </cell>
-          <cell r="L28">
-            <v>0.14899999999999999</v>
-          </cell>
-          <cell r="M28">
-            <v>0.15819868030185025</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
             <v>37894</v>
           </cell>
+          <cell r="D29">
+            <v>10312.740336196188</v>
+          </cell>
           <cell r="E29">
-            <v>10312.740336196188</v>
-          </cell>
-          <cell r="G29">
             <v>9989.2071964495972</v>
-          </cell>
-          <cell r="L29">
-            <v>8.1199999999999994E-2</v>
-          </cell>
-          <cell r="M29">
-            <v>5.8541911793393631E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
             <v>37925</v>
           </cell>
+          <cell r="D30">
+            <v>10500.432210314959</v>
+          </cell>
           <cell r="E30">
-            <v>10500.432210314959</v>
-          </cell>
-          <cell r="G30">
             <v>10252.922266435866</v>
-          </cell>
-          <cell r="L30">
-            <v>8.4900000000000003E-2</v>
-          </cell>
-          <cell r="M30">
-            <v>3.5099999999999999E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
             <v>37955</v>
           </cell>
+          <cell r="D31">
+            <v>10584.435667997479</v>
+          </cell>
           <cell r="E31">
-            <v>10584.435667997479</v>
-          </cell>
-          <cell r="G31">
             <v>10294.959247728253</v>
-          </cell>
-          <cell r="L31">
-            <v>0.15968572788066604</v>
-          </cell>
-          <cell r="M31">
-            <v>0.10108192150892759</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
             <v>37986</v>
           </cell>
+          <cell r="D32">
+            <v>10949.598698543392</v>
+          </cell>
           <cell r="E32">
-            <v>10949.598698543392</v>
-          </cell>
-          <cell r="G32">
             <v>10601.749033310556</v>
-          </cell>
-          <cell r="L32">
-            <v>9.295516518667335E-2</v>
-          </cell>
-          <cell r="M32">
-            <v>5.8999999999999997E-2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
             <v>38017</v>
           </cell>
+          <cell r="D33">
+            <v>11018.581170344214</v>
+          </cell>
           <cell r="E33">
-            <v>11018.581170344214</v>
-          </cell>
-          <cell r="G33">
             <v>10715.187747966978</v>
-          </cell>
-          <cell r="L33">
-            <v>-0.13786936621454959</v>
-          </cell>
-          <cell r="M33">
-            <v>-0.21054084541884954</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
             <v>38046</v>
           </cell>
+          <cell r="D34">
+            <v>11148.600428154276</v>
+          </cell>
           <cell r="E34">
-            <v>11148.600428154276</v>
-          </cell>
-          <cell r="G34">
             <v>10820.196587897055</v>
-          </cell>
-          <cell r="L34">
-            <v>0.12910749271300448</v>
-          </cell>
-          <cell r="M34">
-            <v>0.19407184154643842</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
             <v>38077</v>
           </cell>
+          <cell r="D35">
+            <v>11092.857426013505</v>
+          </cell>
           <cell r="E35">
-            <v>11092.857426013505</v>
-          </cell>
-          <cell r="G35">
             <v>10760.685506663622</v>
-          </cell>
-          <cell r="L35">
-            <v>0.10165801109264971</v>
-          </cell>
-          <cell r="M35">
-            <v>0.10038311937164801</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
             <v>38107</v>
           </cell>
+          <cell r="D36">
+            <v>11096.185283241308</v>
+          </cell>
           <cell r="E36">
-            <v>11096.185283241308</v>
-          </cell>
-          <cell r="G36">
             <v>10591.742744209003</v>
-          </cell>
-          <cell r="L36">
-            <v>1.270806029209548E-2</v>
-          </cell>
-          <cell r="M36">
-            <v>-2.3244230779025377E-2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
             <v>38138</v>
           </cell>
+          <cell r="D37">
+            <v>11129.47383909103</v>
+          </cell>
           <cell r="E37">
-            <v>11129.47383909103</v>
-          </cell>
-          <cell r="G37">
             <v>10654.234026399836</v>
-          </cell>
-          <cell r="L37">
-            <v>0.1087</v>
-          </cell>
-          <cell r="M37">
-            <v>0.10280329820566414</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
             <v>38168</v>
           </cell>
+          <cell r="D38">
+            <v>11267.479314695758</v>
+          </cell>
           <cell r="E38">
-            <v>11267.479314695758</v>
-          </cell>
-          <cell r="G38">
             <v>10756.514673053274</v>
-          </cell>
-          <cell r="L38">
-            <v>0.1416</v>
-          </cell>
-          <cell r="M38">
-            <v>0.1203</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
             <v>38199</v>
           </cell>
+          <cell r="D39">
+            <v>11170.578992589373</v>
+          </cell>
           <cell r="E39">
-            <v>11170.578992589373</v>
-          </cell>
-          <cell r="G39">
             <v>10604.847816163223</v>
-          </cell>
-          <cell r="L39">
-            <v>2.6380915966977669E-2</v>
-          </cell>
-          <cell r="M39">
-            <v>2.9700000000000001E-2</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
             <v>38230</v>
           </cell>
+          <cell r="D40">
+            <v>11247.655987638238</v>
+          </cell>
           <cell r="E40">
-            <v>11247.655987638238</v>
-          </cell>
-          <cell r="G40">
             <v>10668.476903060202</v>
-          </cell>
-          <cell r="L40">
-            <v>9.7265904329510988E-3</v>
-          </cell>
-          <cell r="M40">
-            <v>-1.4E-3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
             <v>38260</v>
           </cell>
+          <cell r="D41">
+            <v>11373.629734699787</v>
+          </cell>
           <cell r="E41">
-            <v>11373.629734699787</v>
-          </cell>
-          <cell r="G41">
             <v>10725.019830646423</v>
-          </cell>
-          <cell r="L41">
-            <v>5.1679014752407992E-2</v>
-          </cell>
-          <cell r="M41">
-            <v>7.6151940143389885E-2</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
             <v>38291</v>
           </cell>
+          <cell r="D42">
+            <v>11405.475897956945</v>
+          </cell>
           <cell r="E42">
-            <v>11405.475897956945</v>
-          </cell>
-          <cell r="G42">
             <v>10827.980021020629</v>
-          </cell>
-          <cell r="L42">
-            <v>0.11283136543336147</v>
-          </cell>
-          <cell r="M42">
-            <v>0.10076216854801134</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
             <v>38321</v>
           </cell>
+          <cell r="D43">
+            <v>11674.64512914873</v>
+          </cell>
           <cell r="E43">
-            <v>11674.64512914873</v>
-          </cell>
-          <cell r="G43">
             <v>11018.552469390592</v>
-          </cell>
-          <cell r="L43">
-            <v>-2.0750190304852256E-2</v>
-          </cell>
-          <cell r="M43">
-            <v>-4.2157616726330671E-2</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
             <v>38352</v>
           </cell>
+          <cell r="D44">
+            <v>11839.257625469727</v>
+          </cell>
           <cell r="E44">
-            <v>11839.257625469727</v>
-          </cell>
-          <cell r="G44">
             <v>11222.395690074318</v>
-          </cell>
-          <cell r="L44">
-            <v>0.1199409765488102</v>
-          </cell>
-          <cell r="M44">
-            <v>0.13208369547649501</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
             <v>38383</v>
           </cell>
+          <cell r="D45">
+            <v>11720.86504921503</v>
+          </cell>
           <cell r="E45">
-            <v>11720.86504921503</v>
-          </cell>
-          <cell r="G45">
             <v>11085.482462655411</v>
-          </cell>
-          <cell r="L45">
-            <v>4.8617896424043128E-2</v>
-          </cell>
-          <cell r="M45">
-            <v>3.0700000000000002E-2</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
             <v>38411</v>
           </cell>
+          <cell r="D46">
+            <v>12033.812146029071</v>
+          </cell>
           <cell r="E46">
-            <v>12033.812146029071</v>
-          </cell>
-          <cell r="G46">
             <v>11188.577449558106</v>
-          </cell>
-          <cell r="L46">
-            <v>5.0725442038000113E-2</v>
-          </cell>
-          <cell r="M46">
-            <v>4.4493497863999698E-2</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
             <v>38442</v>
           </cell>
+          <cell r="D47">
+            <v>11945.96531736306</v>
+          </cell>
           <cell r="E47">
-            <v>11945.96531736306</v>
-          </cell>
-          <cell r="G47">
             <v>11085.642537022171</v>
           </cell>
         </row>
@@ -21385,10 +21486,10 @@
           <cell r="A48">
             <v>38472</v>
           </cell>
+          <cell r="D48">
+            <v>11906.543631815763</v>
+          </cell>
           <cell r="E48">
-            <v>11906.543631815763</v>
-          </cell>
-          <cell r="G48">
             <v>11015.802989038932</v>
           </cell>
         </row>
@@ -21396,10 +21497,10 @@
           <cell r="A49">
             <v>38503</v>
           </cell>
+          <cell r="D49">
+            <v>12068.472625208458</v>
+          </cell>
           <cell r="E49">
-            <v>12068.472625208458</v>
-          </cell>
-          <cell r="G49">
             <v>11215.189023140536</v>
           </cell>
         </row>
@@ -21407,10 +21508,10 @@
           <cell r="A50">
             <v>38533</v>
           </cell>
+          <cell r="D50">
+            <v>12341.220106538169</v>
+          </cell>
           <cell r="E50">
-            <v>12341.220106538169</v>
-          </cell>
-          <cell r="G50">
             <v>11238.740920089131</v>
           </cell>
         </row>
@@ -21418,10 +21519,10 @@
           <cell r="A51">
             <v>38564</v>
           </cell>
+          <cell r="D51">
+            <v>12568.29855649847</v>
+          </cell>
           <cell r="E51">
-            <v>12568.29855649847</v>
-          </cell>
-          <cell r="G51">
             <v>11435.418886190691</v>
           </cell>
         </row>
@@ -21429,10 +21530,10 @@
           <cell r="A52">
             <v>38595</v>
           </cell>
+          <cell r="D52">
+            <v>12700.265691341703</v>
+          </cell>
           <cell r="E52">
-            <v>12700.265691341703</v>
-          </cell>
-          <cell r="G52">
             <v>11422.839925415881</v>
           </cell>
         </row>
@@ -21440,10 +21541,10 @@
           <cell r="A53">
             <v>38625</v>
           </cell>
+          <cell r="D53">
+            <v>12959.351111445074</v>
+          </cell>
           <cell r="E53">
-            <v>12959.351111445074</v>
-          </cell>
-          <cell r="G53">
             <v>11454.823877207045</v>
           </cell>
         </row>
@@ -21451,10 +21552,10 @@
           <cell r="A54">
             <v>38656</v>
           </cell>
+          <cell r="D54">
+            <v>12623.703917658646</v>
+          </cell>
           <cell r="E54">
-            <v>12623.703917658646</v>
-          </cell>
-          <cell r="G54">
             <v>11358.603356638507</v>
           </cell>
         </row>
@@ -21462,10 +21563,10 @@
           <cell r="A55">
             <v>38686</v>
           </cell>
+          <cell r="D55">
+            <v>12694.396659597534</v>
+          </cell>
           <cell r="E55">
-            <v>12694.396659597534</v>
-          </cell>
-          <cell r="G55">
             <v>11591.454725449596</v>
           </cell>
         </row>
@@ -21473,10 +21574,10 @@
           <cell r="A56">
             <v>38717</v>
           </cell>
+          <cell r="D56">
+            <v>12845.459979846746</v>
+          </cell>
           <cell r="E56">
-            <v>12845.459979846746</v>
-          </cell>
-          <cell r="G56">
             <v>11616.955925845585</v>
           </cell>
         </row>
@@ -21484,10 +21585,10 @@
           <cell r="A57">
             <v>38748</v>
           </cell>
+          <cell r="D57">
+            <v>13402.573512306381</v>
+          </cell>
           <cell r="E57">
-            <v>13402.573512306381</v>
-          </cell>
-          <cell r="G57">
             <v>11783.078395585177</v>
           </cell>
         </row>
@@ -21495,10 +21596,10 @@
           <cell r="A58">
             <v>38776</v>
           </cell>
+          <cell r="D58">
+            <v>13347.227074156985</v>
+          </cell>
           <cell r="E58">
-            <v>13347.227074156985</v>
-          </cell>
-          <cell r="G58">
             <v>11806.644552376347</v>
           </cell>
         </row>
@@ -21506,10 +21607,10 @@
           <cell r="A59">
             <v>38807</v>
           </cell>
+          <cell r="D59">
+            <v>13608.438472890941</v>
+          </cell>
           <cell r="E59">
-            <v>13608.438472890941</v>
-          </cell>
-          <cell r="G59">
             <v>11891.652393153458</v>
           </cell>
         </row>
@@ -21517,10 +21618,10 @@
           <cell r="A60">
             <v>38837</v>
           </cell>
+          <cell r="D60">
+            <v>13934.639028628637</v>
+          </cell>
           <cell r="E60">
-            <v>13934.639028628637</v>
-          </cell>
-          <cell r="G60">
             <v>11991.542273255945</v>
           </cell>
         </row>
@@ -21528,10 +21629,10 @@
           <cell r="A61">
             <v>38868</v>
           </cell>
+          <cell r="D61">
+            <v>13626.271903134944</v>
+          </cell>
           <cell r="E61">
-            <v>13626.271903134944</v>
-          </cell>
-          <cell r="G61">
             <v>11827.258144112338</v>
           </cell>
         </row>
@@ -21539,10 +21640,10 @@
           <cell r="A62">
             <v>38898</v>
           </cell>
+          <cell r="D62">
+            <v>13695.363395463346</v>
+          </cell>
           <cell r="E62">
-            <v>13695.363395463346</v>
-          </cell>
-          <cell r="G62">
             <v>11847.36448295733</v>
           </cell>
         </row>
@@ -21550,10 +21651,10 @@
           <cell r="A63">
             <v>38929</v>
           </cell>
+          <cell r="D63">
+            <v>13912.715138241225</v>
+          </cell>
           <cell r="E63">
-            <v>13912.715138241225</v>
-          </cell>
-          <cell r="G63">
             <v>11931.480770786327</v>
           </cell>
         </row>
@@ -21561,10 +21662,10 @@
           <cell r="A64">
             <v>38960</v>
           </cell>
+          <cell r="D64">
+            <v>14043.083705170073</v>
+          </cell>
           <cell r="E64">
-            <v>14043.083705170073</v>
-          </cell>
-          <cell r="G64">
             <v>12119.998166964751</v>
           </cell>
         </row>
@@ -21572,10 +21673,10 @@
           <cell r="A65">
             <v>38990</v>
           </cell>
+          <cell r="D65">
+            <v>14058.116291033504</v>
+          </cell>
           <cell r="E65">
-            <v>14058.116291033504</v>
-          </cell>
-          <cell r="G65">
             <v>12310.282138186098</v>
           </cell>
         </row>
@@ -21583,10 +21684,10 @@
           <cell r="A66">
             <v>39021</v>
           </cell>
+          <cell r="D66">
+            <v>14355.733106156918</v>
+          </cell>
           <cell r="E66">
-            <v>14355.733106156918</v>
-          </cell>
-          <cell r="G66">
             <v>12539.253385956359</v>
           </cell>
         </row>
@@ -21594,10 +21695,10 @@
           <cell r="A67">
             <v>39051</v>
           </cell>
+          <cell r="D67">
+            <v>14661.086180032049</v>
+          </cell>
           <cell r="E67">
-            <v>14661.086180032049</v>
-          </cell>
-          <cell r="G67">
             <v>12694.740127942217</v>
           </cell>
         </row>
@@ -21605,10 +21706,10 @@
           <cell r="A68">
             <v>39082</v>
           </cell>
+          <cell r="D68">
+            <v>14896.696606690539</v>
+          </cell>
           <cell r="E68">
-            <v>14896.696606690539</v>
-          </cell>
-          <cell r="G68">
             <v>12791.220152914579</v>
           </cell>
         </row>
@@ -21616,10 +21717,10 @@
           <cell r="A69">
             <v>39113</v>
           </cell>
+          <cell r="D69">
+            <v>15045.223552429694</v>
+          </cell>
           <cell r="E69">
-            <v>15045.223552429694</v>
-          </cell>
-          <cell r="G69">
             <v>12905.062012275517</v>
           </cell>
         </row>
@@ -21627,10 +21728,10 @@
           <cell r="A70">
             <v>39141</v>
           </cell>
+          <cell r="D70">
+            <v>14940.967102384273</v>
+          </cell>
           <cell r="E70">
-            <v>14940.967102384273</v>
-          </cell>
-          <cell r="G70">
             <v>12835.374677409231</v>
           </cell>
         </row>
@@ -21638,10 +21739,10 @@
           <cell r="A71">
             <v>39172</v>
           </cell>
+          <cell r="D71">
+            <v>15251.297890119155</v>
+          </cell>
           <cell r="E71">
-            <v>15251.297890119155</v>
-          </cell>
-          <cell r="G71">
             <v>12932.923524957541</v>
           </cell>
         </row>
@@ -21649,10 +21750,10 @@
           <cell r="A72">
             <v>39202</v>
           </cell>
+          <cell r="D72">
+            <v>15653.481659837293</v>
+          </cell>
           <cell r="E72">
-            <v>15653.481659837293</v>
-          </cell>
-          <cell r="G72">
             <v>13244.606981909019</v>
           </cell>
         </row>
@@ -21660,10 +21761,10 @@
           <cell r="A73">
             <v>39233</v>
           </cell>
+          <cell r="D73">
+            <v>15903.474992063504</v>
+          </cell>
           <cell r="E73">
-            <v>15903.474992063504</v>
-          </cell>
-          <cell r="G73">
             <v>13469.765300601472</v>
           </cell>
         </row>
@@ -21671,10 +21772,10 @@
           <cell r="A74">
             <v>39263</v>
           </cell>
+          <cell r="D74">
+            <v>16003.197125850689</v>
+          </cell>
           <cell r="E74">
-            <v>16003.197125850689</v>
-          </cell>
-          <cell r="G74">
             <v>13384.905779207682</v>
           </cell>
         </row>
@@ -21682,10 +21783,10 @@
           <cell r="A75">
             <v>39294</v>
           </cell>
+          <cell r="D75">
+            <v>15721.068152169109</v>
+          </cell>
           <cell r="E75">
-            <v>15721.068152169109</v>
-          </cell>
-          <cell r="G75">
             <v>13220.271438123427</v>
           </cell>
         </row>
@@ -21693,10 +21794,10 @@
           <cell r="A76">
             <v>39325</v>
           </cell>
+          <cell r="D76">
+            <v>15690.733751971266</v>
+          </cell>
           <cell r="E76">
-            <v>15690.733751971266</v>
-          </cell>
-          <cell r="G76">
             <v>13359.084288223723</v>
           </cell>
         </row>
@@ -21704,10 +21805,10 @@
           <cell r="A77">
             <v>39355</v>
           </cell>
+          <cell r="D77">
+            <v>16236.307811852126</v>
+          </cell>
           <cell r="E77">
-            <v>16236.307811852126</v>
-          </cell>
-          <cell r="G77">
             <v>13648.976417278178</v>
           </cell>
         </row>
@@ -21715,10 +21816,10 @@
           <cell r="A78">
             <v>39386</v>
           </cell>
+          <cell r="D78">
+            <v>16422.545761771718</v>
+          </cell>
           <cell r="E78">
-            <v>16422.545761771718</v>
-          </cell>
-          <cell r="G78">
             <v>13793.655567301326</v>
           </cell>
         </row>
@@ -21726,10 +21827,10 @@
           <cell r="A79">
             <v>39416</v>
           </cell>
+          <cell r="D79">
+            <v>16233.201394476777</v>
+          </cell>
           <cell r="E79">
-            <v>16233.201394476777</v>
-          </cell>
-          <cell r="G79">
             <v>13581.233271564886</v>
           </cell>
         </row>
@@ -21737,10 +21838,10 @@
           <cell r="A80">
             <v>39447</v>
           </cell>
+          <cell r="D80">
+            <v>16281.421500501214</v>
+          </cell>
           <cell r="E80">
-            <v>16281.421500501214</v>
-          </cell>
-          <cell r="G80">
             <v>13547.280188385976</v>
           </cell>
         </row>
@@ -21748,10 +21849,10 @@
           <cell r="A81">
             <v>39478</v>
           </cell>
+          <cell r="D81">
+            <v>15740.397384194574</v>
+          </cell>
           <cell r="E81">
-            <v>15740.397384194574</v>
-          </cell>
-          <cell r="G81">
             <v>13253.304208297999</v>
           </cell>
         </row>
@@ -21759,10 +21860,10 @@
           <cell r="A82">
             <v>39507</v>
           </cell>
+          <cell r="D82">
+            <v>15804.468071811982</v>
+          </cell>
           <cell r="E82">
-            <v>15804.468071811982</v>
-          </cell>
-          <cell r="G82">
             <v>13100.891209902573</v>
           </cell>
         </row>
@@ -21770,10 +21871,10 @@
           <cell r="A83">
             <v>39538</v>
           </cell>
+          <cell r="D83">
+            <v>15769.231407868911</v>
+          </cell>
           <cell r="E83">
-            <v>15769.231407868911</v>
-          </cell>
-          <cell r="G83">
             <v>13009.184971433255</v>
           </cell>
         </row>
@@ -21781,10 +21882,10 @@
           <cell r="A84">
             <v>39568</v>
           </cell>
+          <cell r="D84">
+            <v>16147.227168297286</v>
+          </cell>
           <cell r="E84">
-            <v>16147.227168297286</v>
-          </cell>
-          <cell r="G84">
             <v>13317.502655256223</v>
           </cell>
         </row>
@@ -21792,10 +21893,10 @@
           <cell r="A85">
             <v>39599</v>
           </cell>
+          <cell r="D85">
+            <v>16400.261676197082</v>
+          </cell>
           <cell r="E85">
-            <v>16400.261676197082</v>
-          </cell>
-          <cell r="G85">
             <v>13413.38867437407</v>
           </cell>
         </row>
@@ -21803,10 +21904,10 @@
           <cell r="A86">
             <v>39629</v>
           </cell>
+          <cell r="D86">
+            <v>16053.731722024626</v>
+          </cell>
           <cell r="E86">
-            <v>16053.731722024626</v>
-          </cell>
-          <cell r="G86">
             <v>12848.685011182921</v>
           </cell>
         </row>
@@ -21814,10 +21915,10 @@
           <cell r="A87">
             <v>39660</v>
           </cell>
+          <cell r="D87">
+            <v>15818.873041919778</v>
+          </cell>
           <cell r="E87">
-            <v>15818.873041919778</v>
-          </cell>
-          <cell r="G87">
             <v>12798.575139639308</v>
           </cell>
         </row>
@@ -21825,10 +21926,10 @@
           <cell r="A88">
             <v>39691</v>
           </cell>
+          <cell r="D88">
+            <v>15813.660120326462</v>
+          </cell>
           <cell r="E88">
-            <v>15813.660120326462</v>
-          </cell>
-          <cell r="G88">
             <v>12926.5608910357</v>
           </cell>
         </row>
@@ -21836,10 +21937,10 @@
           <cell r="A89">
             <v>39721</v>
           </cell>
+          <cell r="D89">
+            <v>15077.857819030416</v>
+          </cell>
           <cell r="E89">
-            <v>15077.857819030416</v>
-          </cell>
-          <cell r="G89">
             <v>11982.921945990094</v>
           </cell>
         </row>
@@ -21847,10 +21948,10 @@
           <cell r="A90">
             <v>39752</v>
           </cell>
+          <cell r="D90">
+            <v>14015.93125708232</v>
+          </cell>
           <cell r="E90">
-            <v>14015.93125708232</v>
-          </cell>
-          <cell r="G90">
             <v>10849.337529899431</v>
           </cell>
         </row>
@@ -21858,10 +21959,10 @@
           <cell r="A91">
             <v>39782</v>
           </cell>
+          <cell r="D91">
+            <v>13763.230490274698</v>
+          </cell>
           <cell r="E91">
-            <v>13763.230490274698</v>
-          </cell>
-          <cell r="G91">
             <v>10539.046476544307</v>
           </cell>
         </row>
@@ -21869,10 +21970,10 @@
           <cell r="A92">
             <v>39813</v>
           </cell>
+          <cell r="D92">
+            <v>14036.71223715517</v>
+          </cell>
           <cell r="E92">
-            <v>14036.71223715517</v>
-          </cell>
-          <cell r="G92">
             <v>10695.024364397161</v>
           </cell>
         </row>
@@ -21880,10 +21981,10 @@
           <cell r="A93">
             <v>39844</v>
           </cell>
+          <cell r="D93">
+            <v>13810.219413615026</v>
+          </cell>
           <cell r="E93">
-            <v>13810.219413615026</v>
-          </cell>
-          <cell r="G93">
             <v>10314.281497024622</v>
           </cell>
         </row>
@@ -21891,10 +21992,10 @@
           <cell r="A94">
             <v>39872</v>
           </cell>
+          <cell r="D94">
+            <v>13329.130117715076</v>
+          </cell>
           <cell r="E94">
-            <v>13329.130117715076</v>
-          </cell>
-          <cell r="G94">
             <v>9717.0845983468971</v>
           </cell>
         </row>
@@ -21902,10 +22003,10 @@
           <cell r="A95">
             <v>39903</v>
           </cell>
+          <cell r="D95">
+            <v>13617.895777988388</v>
+          </cell>
           <cell r="E95">
-            <v>13617.895777988388</v>
-          </cell>
-          <cell r="G95">
             <v>10126.173859937302</v>
           </cell>
         </row>
@@ -21913,10 +22014,10 @@
           <cell r="A96">
             <v>39933</v>
           </cell>
+          <cell r="D96">
+            <v>13892.490487201114</v>
+          </cell>
           <cell r="E96">
-            <v>13892.490487201114</v>
-          </cell>
-          <cell r="G96">
             <v>10759.059726183383</v>
           </cell>
         </row>
@@ -21924,10 +22025,10 @@
           <cell r="A97">
             <v>39964</v>
           </cell>
+          <cell r="D97">
+            <v>14333.775083524955</v>
+          </cell>
           <cell r="E97">
-            <v>14333.775083524955</v>
-          </cell>
-          <cell r="G97">
             <v>11189.422115230718</v>
           </cell>
         </row>
@@ -21935,10 +22036,10 @@
           <cell r="A98">
             <v>39994</v>
           </cell>
+          <cell r="D98">
+            <v>14453.666418891748</v>
+          </cell>
           <cell r="E98">
-            <v>14453.666418891748</v>
-          </cell>
-          <cell r="G98">
             <v>11259.915474556672</v>
           </cell>
         </row>
@@ -21946,10 +22047,10 @@
           <cell r="A99">
             <v>40025</v>
           </cell>
+          <cell r="D99">
+            <v>14839.062651303902</v>
+          </cell>
           <cell r="E99">
-            <v>14839.062651303902</v>
-          </cell>
-          <cell r="G99">
             <v>11765.485679364267</v>
           </cell>
         </row>
@@ -21957,10 +22058,10 @@
           <cell r="A100">
             <v>40056</v>
           </cell>
+          <cell r="D100">
+            <v>15041.827372275122</v>
+          </cell>
           <cell r="E100">
-            <v>15041.827372275122</v>
-          </cell>
-          <cell r="G100">
             <v>12038.444947125519</v>
           </cell>
         </row>
@@ -21968,10 +22069,10 @@
           <cell r="A101">
             <v>40086</v>
           </cell>
+          <cell r="D101">
+            <v>15295.496569484232</v>
+          </cell>
           <cell r="E101">
-            <v>15295.496569484232</v>
-          </cell>
-          <cell r="G101">
             <v>12311.717647425268</v>
           </cell>
         </row>
@@ -21979,10 +22080,10 @@
           <cell r="A102">
             <v>40117</v>
           </cell>
+          <cell r="D102">
+            <v>15392.84099448374</v>
+          </cell>
           <cell r="E102">
-            <v>15392.84099448374</v>
-          </cell>
-          <cell r="G102">
             <v>12252.621402717627</v>
           </cell>
         </row>
@@ -21990,10 +22091,10 @@
           <cell r="A103">
             <v>40147</v>
           </cell>
+          <cell r="D103">
+            <v>15675.519036061803</v>
+          </cell>
           <cell r="E103">
-            <v>15675.519036061803</v>
-          </cell>
-          <cell r="G103">
             <v>12666.760006129483</v>
           </cell>
         </row>
@@ -22001,10 +22102,10 @@
           <cell r="A104">
             <v>40178</v>
           </cell>
+          <cell r="D104">
+            <v>15848.956960028221</v>
+          </cell>
           <cell r="E104">
-            <v>15848.956960028221</v>
-          </cell>
-          <cell r="G104">
             <v>12770.627438179745</v>
           </cell>
         </row>
@@ -22012,10 +22113,10 @@
           <cell r="A105">
             <v>40209</v>
           </cell>
+          <cell r="D105">
+            <v>15639.282579852896</v>
+          </cell>
           <cell r="E105">
-            <v>15639.282579852896</v>
-          </cell>
-          <cell r="G105">
             <v>12610.994595202499</v>
           </cell>
         </row>
@@ -22023,10 +22124,10 @@
           <cell r="A106">
             <v>40237</v>
           </cell>
+          <cell r="D106">
+            <v>15759.243100800626</v>
+          </cell>
           <cell r="E106">
-            <v>15759.243100800626</v>
-          </cell>
-          <cell r="G106">
             <v>12822.8593044019</v>
           </cell>
         </row>
@@ -22034,10 +22135,10 @@
           <cell r="A107">
             <v>40268</v>
           </cell>
+          <cell r="D107">
+            <v>16119.664269484241</v>
+          </cell>
           <cell r="E107">
-            <v>16119.664269484241</v>
-          </cell>
-          <cell r="G107">
             <v>13222.932514699238</v>
           </cell>
         </row>
@@ -22045,10 +22146,10 @@
           <cell r="A108">
             <v>40298</v>
           </cell>
+          <cell r="D108">
+            <v>16249.757405580649</v>
+          </cell>
           <cell r="E108">
-            <v>16249.757405580649</v>
-          </cell>
-          <cell r="G108">
             <v>13356.4841330977</v>
           </cell>
         </row>
@@ -22056,10 +22157,10 @@
           <cell r="A109">
             <v>40329</v>
           </cell>
+          <cell r="D109">
+            <v>15622.036782532892</v>
+          </cell>
           <cell r="E109">
-            <v>15622.036782532892</v>
-          </cell>
-          <cell r="G109">
             <v>12796.847447920905</v>
           </cell>
         </row>
@@ -22067,10 +22168,10 @@
           <cell r="A110">
             <v>40359</v>
           </cell>
+          <cell r="D110">
+            <v>15632.510762771864</v>
+          </cell>
           <cell r="E110">
-            <v>15632.510762771864</v>
-          </cell>
-          <cell r="G110">
             <v>12498.680902384349</v>
           </cell>
         </row>
@@ -22078,10 +22179,10 @@
           <cell r="A111">
             <v>40390</v>
           </cell>
+          <cell r="D111">
+            <v>16185.43988888356</v>
+          </cell>
           <cell r="E111">
-            <v>16185.43988888356</v>
-          </cell>
-          <cell r="G111">
             <v>12996.128402299246</v>
           </cell>
         </row>
@@ -22089,10 +22190,10 @@
           <cell r="A112">
             <v>40421</v>
           </cell>
+          <cell r="D112">
+            <v>16050.622650431647</v>
+          </cell>
           <cell r="E112">
-            <v>16050.622650431647</v>
-          </cell>
-          <cell r="G112">
             <v>12733.606608572802</v>
           </cell>
         </row>
@@ -22100,10 +22201,10 @@
           <cell r="A113">
             <v>40451</v>
           </cell>
+          <cell r="D113">
+            <v>16822.183494790232</v>
+          </cell>
           <cell r="E113">
-            <v>16822.183494790232</v>
-          </cell>
-          <cell r="G113">
             <v>13335.906201158294</v>
           </cell>
         </row>
@@ -22111,10 +22212,10 @@
           <cell r="A114">
             <v>40482</v>
           </cell>
+          <cell r="D114">
+            <v>17195.139072794951</v>
+          </cell>
           <cell r="E114">
-            <v>17195.139072794951</v>
-          </cell>
-          <cell r="G114">
             <v>13619.961003242966</v>
           </cell>
         </row>
@@ -22122,10 +22223,10 @@
           <cell r="A115">
             <v>40512</v>
           </cell>
+          <cell r="D115">
+            <v>16990.00900584456</v>
+          </cell>
           <cell r="E115">
-            <v>16990.00900584456</v>
-          </cell>
-          <cell r="G115">
             <v>13604.979046139399</v>
           </cell>
         </row>
@@ -22133,10 +22234,10 @@
           <cell r="A116">
             <v>40543</v>
           </cell>
+          <cell r="D116">
+            <v>17460.130402477698</v>
+          </cell>
           <cell r="E116">
-            <v>17460.130402477698</v>
-          </cell>
-          <cell r="G116">
             <v>14052.582856757384</v>
           </cell>
         </row>
@@ -22144,10 +22245,10 @@
           <cell r="A117">
             <v>40574</v>
           </cell>
+          <cell r="D117">
+            <v>17517.233093477545</v>
+          </cell>
           <cell r="E117">
-            <v>17517.233093477545</v>
-          </cell>
-          <cell r="G117">
             <v>14190.298168753607</v>
           </cell>
         </row>
@@ -22155,10 +22256,10 @@
           <cell r="A118">
             <v>40602</v>
           </cell>
+          <cell r="D118">
+            <v>17758.453484133392</v>
+          </cell>
           <cell r="E118">
-            <v>17758.453484133392</v>
-          </cell>
-          <cell r="G118">
             <v>14410.247790369289</v>
           </cell>
         </row>
@@ -22166,10 +22267,10 @@
           <cell r="A119">
             <v>40633</v>
           </cell>
+          <cell r="D119">
+            <v>17937.289313093512</v>
+          </cell>
           <cell r="E119">
-            <v>17937.289313093512</v>
-          </cell>
-          <cell r="G119">
             <v>14408.806765590252</v>
           </cell>
         </row>
@@ -22177,10 +22278,10 @@
           <cell r="A120">
             <v>40663</v>
           </cell>
+          <cell r="D120">
+            <v>18422.860019775555</v>
+          </cell>
           <cell r="E120">
-            <v>18422.860019775555</v>
-          </cell>
-          <cell r="G120">
             <v>14756.059008640977</v>
           </cell>
         </row>
@@ -22188,10 +22289,10 @@
           <cell r="A121">
             <v>40694</v>
           </cell>
+          <cell r="D121">
+            <v>18418.631271225753</v>
+          </cell>
           <cell r="E121">
-            <v>18418.631271225753</v>
-          </cell>
-          <cell r="G121">
             <v>14635.059324770122</v>
           </cell>
         </row>
@@ -22199,10 +22300,10 @@
           <cell r="A122">
             <v>40724</v>
           </cell>
+          <cell r="D122">
+            <v>18235.742770004028</v>
+          </cell>
           <cell r="E122">
-            <v>18235.742770004028</v>
-          </cell>
-          <cell r="G122">
             <v>14519.442356104437</v>
           </cell>
         </row>
@@ -22210,10 +22311,10 @@
           <cell r="A123">
             <v>40755</v>
           </cell>
+          <cell r="D123">
+            <v>18306.323517351913</v>
+          </cell>
           <cell r="E123">
-            <v>18306.323517351913</v>
-          </cell>
-          <cell r="G123">
             <v>14432.325701967809</v>
           </cell>
         </row>
@@ -22221,10 +22322,10 @@
           <cell r="A124">
             <v>40786</v>
           </cell>
+          <cell r="D124">
+            <v>17773.068768719659</v>
+          </cell>
           <cell r="E124">
-            <v>17773.068768719659</v>
-          </cell>
-          <cell r="G124">
             <v>13879.567627582443</v>
           </cell>
         </row>
@@ -22232,10 +22333,10 @@
           <cell r="A125">
             <v>40816</v>
           </cell>
+          <cell r="D125">
+            <v>16924.768405514158</v>
+          </cell>
           <cell r="E125">
-            <v>16924.768405514158</v>
-          </cell>
-          <cell r="G125">
             <v>13189.753116491596</v>
           </cell>
         </row>
@@ -22243,10 +22344,10 @@
           <cell r="A126">
             <v>40847</v>
           </cell>
+          <cell r="D126">
+            <v>17719.732594828882</v>
+          </cell>
           <cell r="E126">
-            <v>17719.732594828882</v>
-          </cell>
-          <cell r="G126">
             <v>13948.163920689865</v>
           </cell>
         </row>
@@ -22254,10 +22355,10 @@
           <cell r="A127">
             <v>40877</v>
           </cell>
+          <cell r="D127">
+            <v>17552.64370094992</v>
+          </cell>
           <cell r="E127">
-            <v>17552.64370094992</v>
-          </cell>
-          <cell r="G127">
             <v>13708.255501254</v>
           </cell>
         </row>
@@ -22265,10 +22366,10 @@
           <cell r="A128">
             <v>40908</v>
           </cell>
+          <cell r="D128">
+            <v>17682.014792340233</v>
+          </cell>
           <cell r="E128">
-            <v>17682.014792340233</v>
-          </cell>
-          <cell r="G128">
             <v>13715.109629004626</v>
           </cell>
         </row>
@@ -22276,10 +22377,10 @@
           <cell r="A129">
             <v>40939</v>
           </cell>
+          <cell r="D129">
+            <v>17996.232362269082</v>
+          </cell>
           <cell r="E129">
-            <v>17996.232362269082</v>
-          </cell>
-          <cell r="G129">
             <v>14186.909400242384</v>
           </cell>
         </row>
@@ -22287,10 +22388,10 @@
           <cell r="A130">
             <v>40968</v>
           </cell>
+          <cell r="D130">
+            <v>18413.213378304408</v>
+          </cell>
           <cell r="E130">
-            <v>18413.213378304408</v>
-          </cell>
-          <cell r="G130">
             <v>14575.630717809026</v>
           </cell>
         </row>
@@ -22298,10 +22399,10 @@
           <cell r="A131">
             <v>40999</v>
           </cell>
+          <cell r="D131">
+            <v>18611.532191187849</v>
+          </cell>
           <cell r="E131">
-            <v>18611.532191187849</v>
-          </cell>
-          <cell r="G131">
             <v>14644.136182182729</v>
           </cell>
         </row>
@@ -22309,10 +22410,10 @@
           <cell r="A132">
             <v>41029</v>
           </cell>
+          <cell r="D132">
+            <v>18566.314764362978</v>
+          </cell>
           <cell r="E132">
-            <v>18566.314764362978</v>
-          </cell>
-          <cell r="G132">
             <v>14578.237569362907</v>
           </cell>
         </row>
@@ -22320,10 +22421,10 @@
           <cell r="A133">
             <v>41060</v>
           </cell>
+          <cell r="D133">
+            <v>17847.249969053635</v>
+          </cell>
           <cell r="E133">
-            <v>17847.249969053635</v>
-          </cell>
-          <cell r="G133">
             <v>13919.301231227704</v>
           </cell>
         </row>
@@ -22331,10 +22432,10 @@
           <cell r="A134">
             <v>41090</v>
           </cell>
+          <cell r="D134">
+            <v>18389.279194002513</v>
+          </cell>
           <cell r="E134">
-            <v>18389.279194002513</v>
-          </cell>
-          <cell r="G134">
             <v>14289.554643978361</v>
           </cell>
         </row>
@@ -22342,10 +22443,10 @@
           <cell r="A135">
             <v>41121</v>
           </cell>
+          <cell r="D135">
+            <v>18646.185918086969</v>
+          </cell>
           <cell r="E135">
-            <v>18646.185918086969</v>
-          </cell>
-          <cell r="G135">
             <v>14442.452878668928</v>
           </cell>
         </row>
@@ -22353,10 +22454,10 @@
           <cell r="A136">
             <v>41152</v>
           </cell>
+          <cell r="D136">
+            <v>18951.432593971829</v>
+          </cell>
           <cell r="E136">
-            <v>18951.432593971829</v>
-          </cell>
-          <cell r="G136">
             <v>14628.760520803757</v>
           </cell>
         </row>
@@ -22364,10 +22465,10 @@
           <cell r="A137">
             <v>41182</v>
           </cell>
+          <cell r="D137">
+            <v>19326.111169749485</v>
+          </cell>
           <cell r="E137">
-            <v>19326.111169749485</v>
-          </cell>
-          <cell r="G137">
             <v>14890.615334126145</v>
           </cell>
         </row>
@@ -22375,10 +22476,10 @@
           <cell r="A138">
             <v>41213</v>
           </cell>
+          <cell r="D138">
+            <v>19300.416368347214</v>
+          </cell>
           <cell r="E138">
-            <v>19300.416368347214</v>
-          </cell>
-          <cell r="G138">
             <v>14860.834103457893</v>
           </cell>
         </row>
@@ -22386,10 +22487,10 @@
           <cell r="A139">
             <v>41243</v>
           </cell>
+          <cell r="D139">
+            <v>19303.706353715264</v>
+          </cell>
           <cell r="E139">
-            <v>19303.706353715264</v>
-          </cell>
-          <cell r="G139">
             <v>14963.373858771751</v>
           </cell>
         </row>
@@ -22397,10 +22498,10 @@
           <cell r="A140">
             <v>41274</v>
           </cell>
+          <cell r="D140">
+            <v>19606.204348383013</v>
+          </cell>
           <cell r="E140">
-            <v>19606.204348383013</v>
-          </cell>
-          <cell r="G140">
             <v>15147.423357234644</v>
           </cell>
         </row>
@@ -22408,10 +22509,10 @@
           <cell r="A141">
             <v>41305</v>
           </cell>
+          <cell r="D141">
+            <v>20197.732589398242</v>
+          </cell>
           <cell r="E141">
-            <v>20197.732589398242</v>
-          </cell>
-          <cell r="G141">
             <v>15510.961517808275</v>
           </cell>
         </row>
@@ -22419,10 +22520,10 @@
           <cell r="A142">
             <v>41333</v>
           </cell>
+          <cell r="D142">
+            <v>20124.424149141647</v>
+          </cell>
           <cell r="E142">
-            <v>20124.424149141647</v>
-          </cell>
-          <cell r="G142">
             <v>15529.574671629647</v>
           </cell>
         </row>
@@ -22430,10 +22531,10 @@
           <cell r="A143">
             <v>41364</v>
           </cell>
+          <cell r="D143">
+            <v>20431.733401081845</v>
+          </cell>
           <cell r="E143">
-            <v>20431.733401081845</v>
-          </cell>
-          <cell r="G143">
             <v>15681.764503411618</v>
           </cell>
         </row>
@@ -22441,10 +22542,10 @@
           <cell r="A144">
             <v>41394</v>
           </cell>
+          <cell r="D144">
+            <v>20625.231353514631</v>
+          </cell>
           <cell r="E144">
-            <v>20625.231353514631</v>
-          </cell>
-          <cell r="G144">
             <v>15929.536382565522</v>
           </cell>
         </row>
@@ -22452,10 +22553,10 @@
           <cell r="A145">
             <v>41425</v>
           </cell>
+          <cell r="D145">
+            <v>20455.495225973675</v>
+          </cell>
           <cell r="E145">
-            <v>20455.495225973675</v>
-          </cell>
-          <cell r="G145">
             <v>15904.049124353416</v>
           </cell>
         </row>
@@ -22463,10 +22564,10 @@
           <cell r="A146">
             <v>41455</v>
           </cell>
+          <cell r="D146">
+            <v>20233.971660776166</v>
+          </cell>
           <cell r="E146">
-            <v>20233.971660776166</v>
-          </cell>
-          <cell r="G146">
             <v>15647.993933451326</v>
           </cell>
         </row>
@@ -22474,10 +22575,10 @@
           <cell r="A147">
             <v>41486</v>
           </cell>
+          <cell r="D147">
+            <v>20992.14792468668</v>
+          </cell>
           <cell r="E147">
-            <v>20992.14792468668</v>
-          </cell>
-          <cell r="G147">
             <v>16056.406575114406</v>
           </cell>
         </row>
@@ -22485,10 +22586,10 @@
           <cell r="A148">
             <v>41517</v>
           </cell>
+          <cell r="D148">
+            <v>20936.948271616722</v>
+          </cell>
           <cell r="E148">
-            <v>20936.948271616722</v>
-          </cell>
-          <cell r="G148">
             <v>15892.63122804824</v>
           </cell>
         </row>
@@ -22496,10 +22597,10 @@
           <cell r="A149">
             <v>41547</v>
           </cell>
+          <cell r="D149">
+            <v>21650.279769706744</v>
+          </cell>
           <cell r="E149">
-            <v>21650.279769706744</v>
-          </cell>
-          <cell r="G149">
             <v>16334.446376187982</v>
           </cell>
         </row>
@@ -22507,10 +22608,10 @@
           <cell r="A150">
             <v>41578</v>
           </cell>
+          <cell r="D150">
+            <v>22143.266640016594</v>
+          </cell>
           <cell r="E150">
-            <v>22143.266640016594</v>
-          </cell>
-          <cell r="G150">
             <v>16688.903862551262</v>
           </cell>
         </row>
@@ -22518,10 +22619,10 @@
           <cell r="A151">
             <v>41608</v>
           </cell>
+          <cell r="D151">
+            <v>22138.183916346581</v>
+          </cell>
           <cell r="E151">
-            <v>22138.183916346581</v>
-          </cell>
-          <cell r="G151">
             <v>16827.421764610437</v>
           </cell>
         </row>
@@ -22529,10 +22630,10 @@
           <cell r="A152">
             <v>41639</v>
           </cell>
+          <cell r="D152">
+            <v>22385.477656001727</v>
+          </cell>
           <cell r="E152">
-            <v>22385.477656001727</v>
-          </cell>
-          <cell r="G152">
             <v>16970.454849609625</v>
           </cell>
         </row>
@@ -22540,10 +22641,10 @@
           <cell r="A153">
             <v>41670</v>
           </cell>
+          <cell r="D153">
+            <v>21968.446546801399</v>
+          </cell>
           <cell r="E153">
-            <v>21968.446546801399</v>
-          </cell>
-          <cell r="G153">
             <v>16654.804389406887</v>
           </cell>
         </row>
@@ -22551,10 +22652,10 @@
           <cell r="A154">
             <v>41698</v>
           </cell>
+          <cell r="D154">
+            <v>22444.512930380883</v>
+          </cell>
           <cell r="E154">
-            <v>22444.512930380883</v>
-          </cell>
-          <cell r="G154">
             <v>17079.501901336764</v>
           </cell>
         </row>
@@ -22562,10 +22663,10 @@
           <cell r="A155">
             <v>41729</v>
           </cell>
+          <cell r="D155">
+            <v>22744.606435058606</v>
+          </cell>
           <cell r="E155">
-            <v>22744.606435058606</v>
-          </cell>
-          <cell r="G155">
             <v>17117.076805519704</v>
           </cell>
         </row>
@@ -22573,10 +22674,10 @@
           <cell r="A156">
             <v>41759</v>
           </cell>
+          <cell r="D156">
+            <v>22962.282824049529</v>
+          </cell>
           <cell r="E156">
-            <v>22962.282824049529</v>
-          </cell>
-          <cell r="G156">
             <v>17219.779266352823</v>
           </cell>
         </row>
@@ -22584,10 +22685,10 @@
           <cell r="A157">
             <v>41790</v>
           </cell>
+          <cell r="D157">
+            <v>23294.557662462543</v>
+          </cell>
           <cell r="E157">
-            <v>23294.557662462543</v>
-          </cell>
-          <cell r="G157">
             <v>17435.026507182232</v>
           </cell>
         </row>
@@ -22595,10 +22696,10 @@
           <cell r="A158">
             <v>41820</v>
           </cell>
+          <cell r="D158">
+            <v>23647.946861624096</v>
+          </cell>
           <cell r="E158">
-            <v>23647.946861624096</v>
-          </cell>
-          <cell r="G158">
             <v>17602.402761651181</v>
           </cell>
         </row>
@@ -22606,10 +22707,10 @@
           <cell r="A159">
             <v>41851</v>
           </cell>
+          <cell r="D159">
+            <v>23148.276667085378</v>
+          </cell>
           <cell r="E159">
-            <v>23148.276667085378</v>
-          </cell>
-          <cell r="G159">
             <v>17493.267864528945</v>
           </cell>
         </row>
@@ -22617,10 +22718,10 @@
           <cell r="A160">
             <v>41882</v>
           </cell>
+          <cell r="D160">
+            <v>23578.15085665006</v>
+          </cell>
           <cell r="E160">
-            <v>23578.15085665006</v>
-          </cell>
-          <cell r="G160">
             <v>17706.685732476199</v>
           </cell>
         </row>
@@ -22628,10 +22729,10 @@
           <cell r="A161">
             <v>41912</v>
           </cell>
+          <cell r="D161">
+            <v>23195.488358656254</v>
+          </cell>
           <cell r="E161">
-            <v>23195.488358656254</v>
-          </cell>
-          <cell r="G161">
             <v>17412.754749317093</v>
           </cell>
         </row>
@@ -22639,10 +22740,10 @@
           <cell r="A162">
             <v>41943</v>
           </cell>
+          <cell r="D162">
+            <v>23034.754337994073</v>
+          </cell>
           <cell r="E162">
-            <v>23034.754337994073</v>
-          </cell>
-          <cell r="G162">
             <v>17496.335972113815</v>
           </cell>
         </row>
@@ -22650,10 +22751,10 @@
           <cell r="A163">
             <v>41973</v>
           </cell>
+          <cell r="D163">
+            <v>23326.615314879029</v>
+          </cell>
           <cell r="E163">
-            <v>23326.615314879029</v>
-          </cell>
-          <cell r="G163">
             <v>17664.300797446107</v>
           </cell>
         </row>
@@ -22661,10 +22762,10 @@
           <cell r="A164">
             <v>42004</v>
           </cell>
+          <cell r="D164">
+            <v>22976.027060925364</v>
+          </cell>
           <cell r="E164">
-            <v>22976.027060925364</v>
-          </cell>
-          <cell r="G164">
             <v>17473.52634883369</v>
           </cell>
         </row>
@@ -22672,10 +22773,10 @@
           <cell r="A165">
             <v>42035</v>
           </cell>
+          <cell r="D165">
+            <v>23000.622022177835</v>
+          </cell>
           <cell r="E165">
-            <v>23000.622022177835</v>
-          </cell>
-          <cell r="G165">
             <v>17389.653422359286</v>
           </cell>
         </row>
@@ -22683,10 +22784,10 @@
           <cell r="A166">
             <v>42063</v>
           </cell>
+          <cell r="D166">
+            <v>23593.358675346699</v>
+          </cell>
           <cell r="E166">
-            <v>23593.358675346699</v>
-          </cell>
-          <cell r="G166">
             <v>17878.302683527581</v>
           </cell>
         </row>
@@ -22694,10 +22795,10 @@
           <cell r="A167">
             <v>42094</v>
           </cell>
+          <cell r="D167">
+            <v>23061.811201825036</v>
+          </cell>
           <cell r="E167">
-            <v>23061.811201825036</v>
-          </cell>
-          <cell r="G167">
             <v>17760.305885816299</v>
           </cell>
         </row>
@@ -22705,10 +22806,10 @@
           <cell r="A168">
             <v>42124</v>
           </cell>
+          <cell r="D168">
+            <v>23420.894254157196</v>
+          </cell>
           <cell r="E168">
-            <v>23420.894254157196</v>
-          </cell>
-          <cell r="G168">
             <v>18033.814596457873</v>
           </cell>
         </row>
@@ -22716,10 +22817,10 @@
           <cell r="A169">
             <v>42155</v>
           </cell>
+          <cell r="D169">
+            <v>23668.463924198695</v>
+          </cell>
           <cell r="E169">
-            <v>23668.463924198695</v>
-          </cell>
-          <cell r="G169">
             <v>18037.421359377164</v>
           </cell>
         </row>
@@ -22727,10 +22828,10 @@
           <cell r="A170">
             <v>42185</v>
           </cell>
+          <cell r="D170">
+            <v>23364.808464175159</v>
+          </cell>
           <cell r="E170">
-            <v>23364.808464175159</v>
-          </cell>
-          <cell r="G170">
             <v>17815.561076656824</v>
           </cell>
         </row>
@@ -22738,10 +22839,10 @@
           <cell r="A171">
             <v>42216</v>
           </cell>
+          <cell r="D171">
+            <v>23618.794724050578</v>
+          </cell>
           <cell r="E171">
-            <v>23618.794724050578</v>
-          </cell>
-          <cell r="G171">
             <v>17904.638882040108</v>
           </cell>
         </row>
@@ -22749,10 +22850,10 @@
           <cell r="A172">
             <v>42247</v>
           </cell>
+          <cell r="D172">
+            <v>22595.403257839913</v>
+          </cell>
           <cell r="E172">
-            <v>22595.403257839913</v>
-          </cell>
-          <cell r="G172">
             <v>17285.138376721519</v>
           </cell>
         </row>
@@ -22760,10 +22861,10 @@
           <cell r="A173">
             <v>42277</v>
           </cell>
+          <cell r="D173">
+            <v>22447.865711058825</v>
+          </cell>
           <cell r="E173">
-            <v>22447.865711058825</v>
-          </cell>
-          <cell r="G173">
             <v>17006.847648856303</v>
           </cell>
         </row>
@@ -22771,10 +22872,10 @@
           <cell r="A174">
             <v>42308</v>
           </cell>
+          <cell r="D174">
+            <v>23482.049252714434</v>
+          </cell>
           <cell r="E174">
-            <v>23482.049252714434</v>
-          </cell>
-          <cell r="G174">
             <v>17687.121554810554</v>
           </cell>
         </row>
@@ -22782,10 +22883,10 @@
           <cell r="A175">
             <v>42338</v>
           </cell>
+          <cell r="D175">
+            <v>23413.257694425654</v>
+          </cell>
           <cell r="E175">
-            <v>23413.257694425654</v>
-          </cell>
-          <cell r="G175">
             <v>17616.373068591311</v>
           </cell>
         </row>
@@ -22793,10 +22894,10 @@
           <cell r="A176">
             <v>42369</v>
           </cell>
+          <cell r="D176">
+            <v>23199.505465923387</v>
+          </cell>
           <cell r="E176">
-            <v>23199.505465923387</v>
-          </cell>
-          <cell r="G176">
             <v>17447.255887132833</v>
           </cell>
         </row>
@@ -22804,10 +22905,10 @@
           <cell r="A177">
             <v>42400</v>
           </cell>
+          <cell r="D177">
+            <v>22897.226625221156</v>
+          </cell>
           <cell r="E177">
-            <v>22897.226625221156</v>
-          </cell>
-          <cell r="G177">
             <v>16958.732722293113</v>
           </cell>
         </row>
@@ -22815,10 +22916,10 @@
           <cell r="A178">
             <v>42429</v>
           </cell>
+          <cell r="D178">
+            <v>22738.559420608864</v>
+          </cell>
           <cell r="E178">
-            <v>22738.559420608864</v>
-          </cell>
-          <cell r="G178">
             <v>16907.856524126233</v>
           </cell>
         </row>
@@ -22826,10 +22927,10 @@
           <cell r="A179">
             <v>42460</v>
           </cell>
+          <cell r="D179">
+            <v>23683.811838337959</v>
+          </cell>
           <cell r="E179">
-            <v>23683.811838337959</v>
-          </cell>
-          <cell r="G179">
             <v>17596.006284658171</v>
           </cell>
         </row>
@@ -22837,10 +22938,10 @@
           <cell r="A180">
             <v>42490</v>
           </cell>
+          <cell r="D180">
+            <v>23856.004089615592</v>
+          </cell>
           <cell r="E180">
-            <v>23856.004089615592</v>
-          </cell>
-          <cell r="G180">
             <v>17756.129941848561</v>
           </cell>
         </row>
@@ -22848,10 +22949,10 @@
           <cell r="A181">
             <v>42521</v>
           </cell>
+          <cell r="D181">
+            <v>23965.037047051184</v>
+          </cell>
           <cell r="E181">
-            <v>23965.037047051184</v>
-          </cell>
-          <cell r="G181">
             <v>17772.110458796222</v>
           </cell>
         </row>
@@ -22859,10 +22960,10 @@
           <cell r="A182">
             <v>42551</v>
           </cell>
+          <cell r="D182">
+            <v>23928.381609476</v>
+          </cell>
           <cell r="E182">
-            <v>23928.381609476</v>
-          </cell>
-          <cell r="G182">
             <v>17773.887669842101</v>
           </cell>
         </row>
@@ -22870,10 +22971,10 @@
           <cell r="A183">
             <v>42582</v>
           </cell>
+          <cell r="D183">
+            <v>24164.565788137712</v>
+          </cell>
           <cell r="E183">
-            <v>24164.565788137712</v>
-          </cell>
-          <cell r="G183">
             <v>18173.800142413547</v>
           </cell>
         </row>
@@ -22881,10 +22982,10 @@
           <cell r="A184">
             <v>42613</v>
           </cell>
+          <cell r="D184">
+            <v>24272.592558476957</v>
+          </cell>
           <cell r="E184">
-            <v>24272.592558476957</v>
-          </cell>
-          <cell r="G184">
             <v>18204.695602655651</v>
           </cell>
         </row>
@@ -22892,10 +22993,10 @@
           <cell r="A185">
             <v>42643</v>
           </cell>
+          <cell r="D185">
+            <v>24262.166554839096</v>
+          </cell>
           <cell r="E185">
-            <v>24262.166554839096</v>
-          </cell>
-          <cell r="G185">
             <v>18270.23250682521</v>
           </cell>
         </row>
@@ -22903,10 +23004,10 @@
           <cell r="A186">
             <v>42674</v>
           </cell>
+          <cell r="D186">
+            <v>23943.615514320722</v>
+          </cell>
           <cell r="E186">
-            <v>23943.615514320722</v>
-          </cell>
-          <cell r="G186">
             <v>18118.58957701856</v>
           </cell>
         </row>
@@ -22914,10 +23015,10 @@
           <cell r="A187">
             <v>42704</v>
           </cell>
+          <cell r="D187">
+            <v>23804.035295084737</v>
+          </cell>
           <cell r="E187">
-            <v>23804.035295084737</v>
-          </cell>
-          <cell r="G187">
             <v>18154.826756172595</v>
           </cell>
         </row>
@@ -22925,10 +23026,10 @@
           <cell r="A188">
             <v>42735</v>
           </cell>
+          <cell r="D188">
+            <v>24398.43305114541</v>
+          </cell>
           <cell r="E188">
-            <v>24398.43305114541</v>
-          </cell>
-          <cell r="G188">
             <v>18365.422746544198</v>
           </cell>
         </row>
@@ -22936,10 +23037,10 @@
           <cell r="A189">
             <v>42766</v>
           </cell>
+          <cell r="D189">
+            <v>24773.448236427717</v>
+          </cell>
           <cell r="E189">
-            <v>24773.448236427717</v>
-          </cell>
-          <cell r="G189">
             <v>18640.904087742358</v>
           </cell>
         </row>
@@ -22947,10 +23048,10 @@
           <cell r="A190">
             <v>42794</v>
           </cell>
+          <cell r="D190">
+            <v>25045.224406081667</v>
+          </cell>
           <cell r="E190">
-            <v>25045.224406081667</v>
-          </cell>
-          <cell r="G190">
             <v>18935.430372328687</v>
           </cell>
         </row>
@@ -22958,10 +23059,10 @@
           <cell r="A191">
             <v>42825</v>
           </cell>
+          <cell r="D191">
+            <v>25337.513742930489</v>
+          </cell>
           <cell r="E191">
-            <v>25337.513742930489</v>
-          </cell>
-          <cell r="G191">
             <v>19062.297755823289</v>
           </cell>
         </row>
@@ -22969,10 +23070,10 @@
           <cell r="A192">
             <v>42855</v>
           </cell>
+          <cell r="D192">
+            <v>25691.490512953329</v>
+          </cell>
           <cell r="E192">
-            <v>25691.490512953329</v>
-          </cell>
-          <cell r="G192">
             <v>19237.670895176863</v>
           </cell>
         </row>
@@ -22980,10 +23081,10 @@
           <cell r="A193">
             <v>42886</v>
           </cell>
+          <cell r="D193">
+            <v>26212.268892181783</v>
+          </cell>
           <cell r="E193">
-            <v>26212.268892181783</v>
-          </cell>
-          <cell r="G193">
             <v>19481.989315545608</v>
           </cell>
         </row>
@@ -22991,10 +23092,10 @@
           <cell r="A194">
             <v>42916</v>
           </cell>
+          <cell r="D194">
+            <v>26109.266782506464</v>
+          </cell>
           <cell r="E194">
-            <v>26109.266782506464</v>
-          </cell>
-          <cell r="G194">
             <v>19538.487084560689</v>
           </cell>
         </row>
@@ -23002,10 +23103,10 @@
           <cell r="A195">
             <v>42947</v>
           </cell>
+          <cell r="D195">
+            <v>26228.598191198278</v>
+          </cell>
           <cell r="E195">
-            <v>26228.598191198278</v>
-          </cell>
-          <cell r="G195">
             <v>19851.102877913661</v>
           </cell>
         </row>
@@ -23013,10 +23114,10 @@
           <cell r="A196">
             <v>42978</v>
           </cell>
+          <cell r="D196">
+            <v>26272.412064790802</v>
+          </cell>
           <cell r="E196">
-            <v>26272.412064790802</v>
-          </cell>
-          <cell r="G196">
             <v>19914.626407122985</v>
           </cell>
         </row>
@@ -23024,10 +23125,10 @@
           <cell r="A197">
             <v>43008</v>
           </cell>
+          <cell r="D197">
+            <v>26576.396007230655</v>
+          </cell>
           <cell r="E197">
-            <v>26576.396007230655</v>
-          </cell>
-          <cell r="G197">
             <v>20107.798283272077</v>
           </cell>
         </row>
@@ -23035,10 +23136,10 @@
           <cell r="A198">
             <v>43039</v>
           </cell>
+          <cell r="D198">
+            <v>26631.421422221665</v>
+          </cell>
           <cell r="E198">
-            <v>26631.421422221665</v>
-          </cell>
-          <cell r="G198">
             <v>20324.962504731415</v>
           </cell>
         </row>
@@ -23046,10 +23147,10 @@
           <cell r="A199">
             <v>43069</v>
           </cell>
+          <cell r="D199">
+            <v>26795.749593068267</v>
+          </cell>
           <cell r="E199">
-            <v>26795.749593068267</v>
-          </cell>
-          <cell r="G199">
             <v>20503.822174773049</v>
           </cell>
         </row>
@@ -23057,10 +23158,10 @@
           <cell r="A200">
             <v>43100</v>
           </cell>
+          <cell r="D200">
+            <v>27151.341566740604</v>
+          </cell>
           <cell r="E200">
-            <v>27151.341566740604</v>
-          </cell>
-          <cell r="G200">
             <v>20682.205427693574</v>
           </cell>
         </row>
@@ -23068,10 +23169,10 @@
           <cell r="A201">
             <v>43131</v>
           </cell>
+          <cell r="D201">
+            <v>27777.735557500462</v>
+          </cell>
           <cell r="E201">
-            <v>27777.735557500462</v>
-          </cell>
-          <cell r="G201">
             <v>21246.82963586961</v>
           </cell>
         </row>
@@ -23079,10 +23180,10 @@
           <cell r="A202">
             <v>43159</v>
           </cell>
+          <cell r="D202">
+            <v>27182.47151464078</v>
+          </cell>
           <cell r="E202">
-            <v>27182.47151464078</v>
-          </cell>
-          <cell r="G202">
             <v>20779.399383880478</v>
           </cell>
         </row>
@@ -23090,10 +23191,10 @@
           <cell r="A203">
             <v>43190</v>
           </cell>
+          <cell r="D203">
+            <v>27208.85106720361</v>
+          </cell>
           <cell r="E203">
-            <v>27208.85106720361</v>
-          </cell>
-          <cell r="G203">
             <v>20565.371570226511</v>
           </cell>
         </row>
@@ -23101,10 +23202,10 @@
           <cell r="A204">
             <v>43220</v>
           </cell>
+          <cell r="D204">
+            <v>27344.091624385579</v>
+          </cell>
           <cell r="E204">
-            <v>27344.091624385579</v>
-          </cell>
-          <cell r="G204">
             <v>20680.537651019782</v>
           </cell>
         </row>
@@ -23112,10 +23213,10 @@
           <cell r="A205">
             <v>43251</v>
           </cell>
+          <cell r="D205">
+            <v>27143.672062622474</v>
+          </cell>
           <cell r="E205">
-            <v>27143.672062622474</v>
-          </cell>
-          <cell r="G205">
             <v>20742.579263972839</v>
           </cell>
         </row>
@@ -23123,10 +23224,10 @@
           <cell r="A206">
             <v>43281</v>
           </cell>
+          <cell r="D206">
+            <v>27351.876564615504</v>
+          </cell>
           <cell r="E206">
-            <v>27351.876564615504</v>
-          </cell>
-          <cell r="G206">
             <v>20688.648557886507</v>
           </cell>
         </row>
@@ -23134,10 +23235,10 @@
           <cell r="A207">
             <v>43312</v>
           </cell>
+          <cell r="D207">
+            <v>27457.740960359955</v>
+          </cell>
           <cell r="E207">
-            <v>27457.740960359955</v>
-          </cell>
-          <cell r="G207">
             <v>21023.804664524268</v>
           </cell>
         </row>
@@ -23145,10 +23246,10 @@
           <cell r="A208">
             <v>43343</v>
           </cell>
+          <cell r="D208">
+            <v>27621.676356229938</v>
+          </cell>
           <cell r="E208">
-            <v>27621.676356229938</v>
-          </cell>
-          <cell r="G208">
             <v>21156.254633910772</v>
           </cell>
         </row>
@@ -23156,10 +23257,10 @@
           <cell r="A209">
             <v>43373</v>
           </cell>
+          <cell r="D209">
+            <v>27712.011995970854</v>
+          </cell>
           <cell r="E209">
-            <v>27712.011995970854</v>
-          </cell>
-          <cell r="G209">
             <v>21211.260895958938</v>
           </cell>
         </row>
@@ -23167,10 +23268,10 @@
           <cell r="A210">
             <v>43404</v>
           </cell>
+          <cell r="D210">
+            <v>27248.402835059042</v>
+          </cell>
           <cell r="E210">
-            <v>27248.402835059042</v>
-          </cell>
-          <cell r="G210">
             <v>20422.201990629266</v>
           </cell>
         </row>
@@ -23178,10 +23279,10 @@
           <cell r="A211">
             <v>43434</v>
           </cell>
+          <cell r="D211">
+            <v>27411.088385630701</v>
+          </cell>
           <cell r="E211">
-            <v>27411.088385630701</v>
-          </cell>
-          <cell r="G211">
             <v>20589.664046952425</v>
           </cell>
         </row>
@@ -23189,10 +23290,10 @@
           <cell r="A212">
             <v>43465</v>
           </cell>
+          <cell r="D212">
+            <v>26587.946062198691</v>
+          </cell>
           <cell r="E212">
-            <v>26587.946062198691</v>
-          </cell>
-          <cell r="G212">
             <v>19943.14859587812</v>
           </cell>
         </row>
@@ -23200,10 +23301,10 @@
           <cell r="A213">
             <v>43496</v>
           </cell>
+          <cell r="D213">
+            <v>27432.657389185595</v>
+          </cell>
           <cell r="E213">
-            <v>27432.657389185595</v>
-          </cell>
-          <cell r="G213">
             <v>20800.703985500877</v>
           </cell>
         </row>
@@ -23211,10 +23312,10 @@
           <cell r="A214">
             <v>43524</v>
           </cell>
+          <cell r="D214">
+            <v>27862.539801225026</v>
+          </cell>
           <cell r="E214">
-            <v>27862.539801225026</v>
-          </cell>
-          <cell r="G214">
             <v>21110.634474884839</v>
           </cell>
         </row>
@@ -23222,10 +23323,10 @@
           <cell r="A215">
             <v>43555</v>
           </cell>
+          <cell r="D215">
+            <v>28215.571049813963</v>
+          </cell>
           <cell r="E215">
-            <v>28215.571049813963</v>
-          </cell>
-          <cell r="G215">
             <v>21323.851883081177</v>
           </cell>
         </row>
@@ -23233,10 +23334,10 @@
           <cell r="A216">
             <v>43585</v>
           </cell>
+          <cell r="D216">
+            <v>28355.815470299021</v>
+          </cell>
           <cell r="E216">
-            <v>28355.815470299021</v>
-          </cell>
-          <cell r="G216">
             <v>21718.343142918176</v>
           </cell>
         </row>
@@ -23244,10 +23345,10 @@
           <cell r="A217">
             <v>43616</v>
           </cell>
+          <cell r="D217">
+            <v>27799.203909761418</v>
+          </cell>
           <cell r="E217">
-            <v>27799.203909761418</v>
-          </cell>
-          <cell r="G217">
             <v>21147.150718259429</v>
           </cell>
         </row>
@@ -23255,10 +23356,10 @@
           <cell r="A218">
             <v>43646</v>
           </cell>
+          <cell r="D218">
+            <v>28737.995865847533</v>
+          </cell>
           <cell r="E218">
-            <v>28737.995865847533</v>
-          </cell>
-          <cell r="G218">
             <v>21916.907004404071</v>
           </cell>
         </row>
@@ -23266,10 +23367,10 @@
           <cell r="A219">
             <v>43677</v>
           </cell>
+          <cell r="D219">
+            <v>28906.701175248068</v>
+          </cell>
           <cell r="E219">
-            <v>28906.701175248068</v>
-          </cell>
-          <cell r="G219">
             <v>21960.74081841288</v>
           </cell>
         </row>
@@ -23277,10 +23378,10 @@
           <cell r="A220">
             <v>43708</v>
           </cell>
+          <cell r="D220">
+            <v>28900.065985568337</v>
+          </cell>
           <cell r="E220">
-            <v>28900.065985568337</v>
-          </cell>
-          <cell r="G220">
             <v>21791.643114111099</v>
           </cell>
         </row>
@@ -23288,10 +23389,10 @@
           <cell r="A221">
             <v>43738</v>
           </cell>
+          <cell r="D221">
+            <v>29136.192873196302</v>
+          </cell>
           <cell r="E221">
-            <v>29136.192873196302</v>
-          </cell>
-          <cell r="G221">
             <v>22033.530352677735</v>
           </cell>
         </row>
@@ -23299,10 +23400,10 @@
           <cell r="A222">
             <v>43769</v>
           </cell>
+          <cell r="D222">
+            <v>29074.146239965889</v>
+          </cell>
           <cell r="E222">
-            <v>29074.146239965889</v>
-          </cell>
-          <cell r="G222">
             <v>22381.660132250043</v>
           </cell>
         </row>
@@ -23310,10 +23411,10 @@
           <cell r="A223">
             <v>43799</v>
           </cell>
+          <cell r="D223">
+            <v>29113.991249245686</v>
+          </cell>
           <cell r="E223">
-            <v>29113.991249245686</v>
-          </cell>
-          <cell r="G223">
             <v>22668.145381942843</v>
           </cell>
         </row>
@@ -23321,10 +23422,10 @@
           <cell r="A224">
             <v>43830</v>
           </cell>
+          <cell r="D224">
+            <v>29776.930277325897</v>
+          </cell>
           <cell r="E224">
-            <v>29776.930277325897</v>
-          </cell>
-          <cell r="G224">
             <v>23105.640587814341</v>
           </cell>
         </row>
@@ -23332,10 +23433,10 @@
           <cell r="A225">
             <v>43861</v>
           </cell>
+          <cell r="D225">
+            <v>29481.259113208962</v>
+          </cell>
           <cell r="E225">
-            <v>29481.259113208962</v>
-          </cell>
-          <cell r="G225">
             <v>23043.255358227241</v>
           </cell>
         </row>
@@ -23343,10 +23444,10 @@
           <cell r="A226">
             <v>43890</v>
           </cell>
+          <cell r="D226">
+            <v>27752.786508372163</v>
+          </cell>
           <cell r="E226">
-            <v>27752.786508372163</v>
-          </cell>
-          <cell r="G226">
             <v>22188.350584437008</v>
           </cell>
         </row>
@@ -23354,10 +23455,10 @@
           <cell r="A227">
             <v>43921</v>
           </cell>
+          <cell r="D227">
+            <v>25598.350510341174</v>
+          </cell>
           <cell r="E227">
-            <v>25598.350510341174</v>
-          </cell>
-          <cell r="G227">
             <v>20537.537300954893</v>
           </cell>
         </row>
@@ -23365,10 +23466,10 @@
           <cell r="A228">
             <v>43951</v>
           </cell>
+          <cell r="D228">
+            <v>26992.692662639456</v>
+          </cell>
           <cell r="E228">
-            <v>26992.692662639456</v>
-          </cell>
-          <cell r="G228">
             <v>21829.348397184956</v>
           </cell>
         </row>
@@ -23376,10 +23477,10 @@
           <cell r="A229">
             <v>43982</v>
           </cell>
+          <cell r="D229">
+            <v>27974.416894779653</v>
+          </cell>
           <cell r="E229">
-            <v>27974.416894779653</v>
-          </cell>
-          <cell r="G229">
             <v>22414.374934229512</v>
           </cell>
         </row>
@@ -23387,10 +23488,10 @@
           <cell r="A230">
             <v>44012</v>
           </cell>
+          <cell r="D230">
+            <v>28264.511597978519</v>
+          </cell>
           <cell r="E230">
-            <v>28264.511597978519</v>
-          </cell>
-          <cell r="G230">
             <v>22835.765182993026</v>
           </cell>
         </row>
@@ -23398,10 +23499,10 @@
           <cell r="A231">
             <v>44043</v>
           </cell>
+          <cell r="D231">
+            <v>28851.578558840953</v>
+          </cell>
           <cell r="E231">
-            <v>28851.578558840953</v>
-          </cell>
-          <cell r="G231">
             <v>23486.584490708326</v>
           </cell>
         </row>
@@ -23409,10 +23510,10 @@
           <cell r="A232">
             <v>44074</v>
           </cell>
+          <cell r="D232">
+            <v>29297.925805276449</v>
+          </cell>
           <cell r="E232">
-            <v>29297.925805276449</v>
-          </cell>
-          <cell r="G232">
             <v>24226.411902165641</v>
           </cell>
         </row>
@@ -23420,10 +23521,10 @@
           <cell r="A233">
             <v>44104</v>
           </cell>
+          <cell r="D233">
+            <v>28763.838150137875</v>
+          </cell>
           <cell r="E233">
-            <v>28763.838150137875</v>
-          </cell>
-          <cell r="G233">
             <v>23833.944029350558</v>
           </cell>
         </row>
@@ -23431,10 +23532,10 @@
           <cell r="A234">
             <v>44135</v>
           </cell>
+          <cell r="D234">
+            <v>28371.800321755687</v>
+          </cell>
           <cell r="E234">
-            <v>28371.800321755687</v>
-          </cell>
-          <cell r="G234">
             <v>23562.237067415961</v>
           </cell>
         </row>
@@ -23442,10 +23543,10 @@
           <cell r="A235">
             <v>44165</v>
           </cell>
+          <cell r="D235">
+            <v>30419.406255504335</v>
+          </cell>
           <cell r="E235">
-            <v>30419.406255504335</v>
-          </cell>
-          <cell r="G235">
             <v>25041.945555249684</v>
           </cell>
         </row>
@@ -23453,118 +23554,18 @@
           <cell r="A236">
             <v>44196</v>
           </cell>
+          <cell r="D236">
+            <v>31224.621989374878</v>
+          </cell>
           <cell r="E236">
-            <v>31224.621989374878</v>
-          </cell>
-          <cell r="G236">
             <v>25642.952248575675</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>44227</v>
-          </cell>
-          <cell r="E237">
-            <v>31227.744451573817</v>
-          </cell>
-          <cell r="G237">
-            <v>25591.666344078523</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>44255</v>
-          </cell>
-          <cell r="E238">
-            <v>31686.79229501195</v>
-          </cell>
-          <cell r="G238">
-            <v>25893.648006938649</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>44286</v>
-          </cell>
-          <cell r="E239">
-            <v>32808.504742255376</v>
-          </cell>
-          <cell r="G239">
-            <v>26232.854795829549</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="G2">
-            <v>201</v>
-          </cell>
-          <cell r="H2">
-            <v>201</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>0.21066268383916142</v>
-          </cell>
-          <cell r="H3">
-            <v>0.16381013549841528</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>0.43988255366998552</v>
-          </cell>
-          <cell r="H4">
-            <v>0.50000039315173628</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>-2.3163269199505065E-2</v>
-          </cell>
-          <cell r="H5">
-            <v>-0.1769816940587815</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>0.11233401200793985</v>
-          </cell>
-          <cell r="H6">
-            <v>0.10516145294162252</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>0.98009950248756217</v>
-          </cell>
-          <cell r="H7">
-            <v>0.89054726368159209</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>0.21516974598940239</v>
-          </cell>
-          <cell r="H8">
-            <v>0.19041209982931129</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>1.9900497512437811E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>0.10945273631840796</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>-1.1310127060203595E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>-5.2633119739329631E-2</v>
+            <v>198</v>
           </cell>
         </row>
       </sheetData>
@@ -23911,7 +23912,7 @@
         <v>34</v>
       </c>
       <c r="G2">
-        <f>[3]Data!E239</f>
+        <f>[1]Data!E239</f>
         <v>32808.504742255376</v>
       </c>
     </row>
@@ -23920,7 +23921,7 @@
         <v>35</v>
       </c>
       <c r="G3">
-        <f>[3]Data!G239</f>
+        <f>[1]Data!G239</f>
         <v>26232.854795829549</v>
       </c>
     </row>
@@ -23939,11 +23940,11 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="61" t="s">
+      <c r="N18" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" spans="1:16" ht="48" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
@@ -23976,11 +23977,11 @@
         <v>2002</v>
       </c>
       <c r="B20" s="25">
-        <f>[3]Data!L27*100</f>
+        <f>[1]Data!L27*100</f>
         <v>-5.54</v>
       </c>
       <c r="C20" s="26">
-        <f>[3]Data!M27*100</f>
+        <f>[1]Data!M27*100</f>
         <v>-7.9310623692113396</v>
       </c>
       <c r="F20" s="27" t="s">
@@ -23997,7 +23998,7 @@
         <v>55</v>
       </c>
       <c r="O20" s="29">
-        <f>[3]Data!J20*100</f>
+        <f>[1]Data!J20*100</f>
         <v>2.2381825398488688</v>
       </c>
       <c r="P20" s="30">
@@ -24009,11 +24010,11 @@
         <v>2003</v>
       </c>
       <c r="B21" s="32">
-        <f>[3]Data!L28*100</f>
+        <f>[1]Data!L28*100</f>
         <v>14.899999999999999</v>
       </c>
       <c r="C21" s="26">
-        <f>[3]Data!M28*100</f>
+        <f>[1]Data!M28*100</f>
         <v>15.819868030185024</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -24042,7 +24043,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="34">
-        <f>[3]Data!J18</f>
+        <f>[1]Data!J18</f>
         <v>0.79297385392544295</v>
       </c>
       <c r="P21" s="35">
@@ -24054,38 +24055,38 @@
         <v>2004</v>
       </c>
       <c r="B22" s="32">
-        <f>[3]Data!L29*100</f>
+        <f>[1]Data!L29*100</f>
         <v>8.1199999999999992</v>
       </c>
       <c r="C22" s="26">
-        <f>[3]Data!M29*100</f>
+        <f>[1]Data!M29*100</f>
         <v>5.8541911793393631</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="10">
-        <f>[3]Data!P5</f>
+        <f>[1]Data!P5</f>
         <v>5.0725442038000113</v>
       </c>
       <c r="H22" s="10">
-        <f>[3]Data!Q5</f>
+        <f>[1]Data!Q5</f>
         <v>28.166479824555335</v>
       </c>
       <c r="I22" s="10">
-        <f>[3]Data!R5</f>
+        <f>[1]Data!R5</f>
         <v>6.4368659234335102</v>
       </c>
       <c r="J22" s="10">
-        <f>[3]Data!S5</f>
+        <f>[1]Data!S5</f>
         <v>6.7350277001640313</v>
       </c>
       <c r="K22" s="10">
-        <f>[3]Data!T5</f>
+        <f>[1]Data!T5</f>
         <v>6.2240761092679842</v>
       </c>
       <c r="L22" s="10">
-        <f>[3]Data!U5</f>
+        <f>[1]Data!U5</f>
         <v>6.2274114039540418</v>
       </c>
       <c r="M22" s="52"/>
@@ -24093,7 +24094,7 @@
         <v>57</v>
       </c>
       <c r="O22" s="37">
-        <f>[3]Data!J21</f>
+        <f>[1]Data!J21</f>
         <v>0.78173173985449418</v>
       </c>
       <c r="P22" s="38">
@@ -24105,38 +24106,38 @@
         <v>2005</v>
       </c>
       <c r="B23" s="32">
-        <f>[3]Data!L30*100</f>
+        <f>[1]Data!L30*100</f>
         <v>8.49</v>
       </c>
       <c r="C23" s="26">
-        <f>[3]Data!M30*100</f>
+        <f>[1]Data!M30*100</f>
         <v>3.51</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="64">
-        <f>[3]Data!P6</f>
+      <c r="G23" s="62">
+        <f>[1]Data!P6</f>
         <v>4.4493497863999698</v>
       </c>
-      <c r="H23" s="64">
-        <f>[3]Data!Q6</f>
+      <c r="H23" s="62">
+        <f>[1]Data!Q6</f>
         <v>25.483631091260396</v>
       </c>
-      <c r="I23" s="64">
-        <f>[3]Data!R6</f>
+      <c r="I23" s="62">
+        <f>[1]Data!R6</f>
         <v>5.7771408245477218</v>
       </c>
-      <c r="J23" s="64">
-        <f>[3]Data!S6</f>
+      <c r="J23" s="62">
+        <f>[1]Data!S6</f>
         <v>6.4524214189570772</v>
       </c>
-      <c r="K23" s="64">
-        <f>[3]Data!T6</f>
+      <c r="K23" s="62">
+        <f>[1]Data!T6</f>
         <v>4.9563676515188781</v>
       </c>
-      <c r="L23" s="64">
-        <f>[3]Data!U6</f>
+      <c r="L23" s="62">
+        <f>[1]Data!U6</f>
         <v>4.4401197769886158</v>
       </c>
       <c r="M23" s="56" t="s">
@@ -24151,38 +24152,38 @@
         <v>2006</v>
       </c>
       <c r="B24" s="32">
-        <f>[3]Data!L31*100</f>
+        <f>[1]Data!L31*100</f>
         <v>15.968572788066604</v>
       </c>
       <c r="C24" s="26">
-        <f>[3]Data!M31*100</f>
+        <f>[1]Data!M31*100</f>
         <v>10.108192150892759</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="58">
-        <f>[3]Data!P7</f>
+        <f>[1]Data!P7</f>
         <v>2.3004470840000124</v>
       </c>
       <c r="H24" s="58">
-        <f>[3]Data!Q7</f>
+        <f>[1]Data!Q7</f>
         <v>27.731258190386111</v>
       </c>
       <c r="I24" s="58">
-        <f>[3]Data!R7</f>
+        <f>[1]Data!R7</f>
         <v>8.451691889062829</v>
       </c>
       <c r="J24" s="58">
-        <f>[3]Data!S7</f>
+        <f>[1]Data!S7</f>
         <v>8.3144227137943005</v>
       </c>
       <c r="K24" s="59">
-        <f>[3]Data!T7</f>
+        <f>[1]Data!T7</f>
         <v>6.174873888680299</v>
       </c>
       <c r="L24" s="59">
-        <f>[3]Data!U7</f>
+        <f>[1]Data!U7</f>
         <v>5.0260982522815745</v>
       </c>
       <c r="M24" s="16"/>
@@ -24195,21 +24196,21 @@
         <v>2007</v>
       </c>
       <c r="B25" s="32">
-        <f>[3]Data!L32*100</f>
+        <f>[1]Data!L32*100</f>
         <v>9.2955165186673341</v>
       </c>
       <c r="C25" s="26">
-        <f>[3]Data!M32*100</f>
+        <f>[1]Data!M32*100</f>
         <v>5.8999999999999995</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -24217,11 +24218,11 @@
         <v>2008</v>
       </c>
       <c r="B26" s="32">
-        <f>[3]Data!L33*100</f>
+        <f>[1]Data!L33*100</f>
         <v>-13.786936621454959</v>
       </c>
       <c r="C26" s="26">
-        <f>[3]Data!M33*100</f>
+        <f>[1]Data!M33*100</f>
         <v>-21.054084541884954</v>
       </c>
     </row>
@@ -24230,29 +24231,29 @@
         <v>2009</v>
       </c>
       <c r="B27" s="32">
-        <f>[3]Data!L34*100</f>
+        <f>[1]Data!L34*100</f>
         <v>12.910749271300448</v>
       </c>
       <c r="C27" s="26">
-        <f>[3]Data!M34*100</f>
+        <f>[1]Data!M34*100</f>
         <v>19.407184154643843</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
     </row>
     <row r="28" spans="1:16" ht="48" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>2010</v>
       </c>
       <c r="B28" s="32">
-        <f>[3]Data!L35*100</f>
+        <f>[1]Data!L35*100</f>
         <v>10.165801109264972</v>
       </c>
       <c r="C28" s="26">
-        <f>[3]Data!M35*100</f>
+        <f>[1]Data!M35*100</f>
         <v>10.038311937164801</v>
       </c>
       <c r="F28" s="22"/>
@@ -24268,22 +24269,22 @@
         <v>2011</v>
       </c>
       <c r="B29" s="32">
-        <f>[3]Data!L36*100</f>
+        <f>[1]Data!L36*100</f>
         <v>1.270806029209548</v>
       </c>
       <c r="C29" s="26">
-        <f>[3]Data!M36*100</f>
-        <v>-2.3244230779025377</v>
+        <f>[1]Data!M36*100</f>
+        <v>-2.4015032054443997</v>
       </c>
       <c r="F29" s="41" t="s">
         <v>37</v>
       </c>
       <c r="G29" s="42">
-        <f>'[3]Rolling 36M Periods'!G2</f>
+        <f>'[1]Rolling 36M Periods'!G2</f>
         <v>201</v>
       </c>
       <c r="H29" s="43">
-        <f>'[3]Rolling 36M Periods'!H2</f>
+        <f>'[1]Rolling 36M Periods'!H2</f>
         <v>201</v>
       </c>
     </row>
@@ -24292,22 +24293,22 @@
         <v>2012</v>
       </c>
       <c r="B30" s="32">
-        <f>[3]Data!L37*100</f>
+        <f>[1]Data!L37*100</f>
         <v>10.870000000000001</v>
       </c>
       <c r="C30" s="26">
-        <f>[3]Data!M37*100</f>
-        <v>10.280329820566415</v>
+        <f>[1]Data!M37*100</f>
+        <v>10.443326863395752</v>
       </c>
       <c r="F30" s="44" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="34">
-        <f>'[3]Rolling 36M Periods'!G3*100</f>
+        <f>'[1]Rolling 36M Periods'!G3*100</f>
         <v>21.066268383916142</v>
       </c>
       <c r="H30" s="35">
-        <f>'[3]Rolling 36M Periods'!H3*100</f>
+        <f>'[1]Rolling 36M Periods'!H3*100</f>
         <v>16.381013549841526</v>
       </c>
     </row>
@@ -24316,22 +24317,22 @@
         <v>2013</v>
       </c>
       <c r="B31" s="32">
-        <f>[3]Data!L38*100</f>
+        <f>[1]Data!L38*100</f>
         <v>14.16</v>
       </c>
       <c r="C31" s="26">
-        <f>[3]Data!M38*100</f>
+        <f>[1]Data!M38*100</f>
         <v>12.030000000000001</v>
       </c>
       <c r="F31" s="44" t="s">
         <v>39</v>
       </c>
       <c r="G31" s="34">
-        <f>'[3]Rolling 36M Periods'!G4*100</f>
+        <f>'[1]Rolling 36M Periods'!G4*100</f>
         <v>43.988255366998551</v>
       </c>
       <c r="H31" s="35">
-        <f>'[3]Rolling 36M Periods'!H4*100</f>
+        <f>'[1]Rolling 36M Periods'!H4*100</f>
         <v>50.00003931517363</v>
       </c>
     </row>
@@ -24340,22 +24341,22 @@
         <v>2014</v>
       </c>
       <c r="B32" s="32">
-        <f>[3]Data!L39*100</f>
+        <f>[1]Data!L39*100</f>
         <v>2.6380915966977669</v>
       </c>
       <c r="C32" s="26">
-        <f>[3]Data!M39*100</f>
+        <f>[1]Data!M39*100</f>
         <v>2.97</v>
       </c>
       <c r="F32" s="44" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="34">
-        <f>'[3]Rolling 36M Periods'!G5*100</f>
+        <f>'[1]Rolling 36M Periods'!G5*100</f>
         <v>-2.3163269199505065</v>
       </c>
       <c r="H32" s="35">
-        <f>'[3]Rolling 36M Periods'!H5*100</f>
+        <f>'[1]Rolling 36M Periods'!H5*100</f>
         <v>-17.698169405878151</v>
       </c>
     </row>
@@ -24364,22 +24365,22 @@
         <v>2015</v>
       </c>
       <c r="B33" s="32">
-        <f>[3]Data!L40*100</f>
+        <f>[1]Data!L40*100</f>
         <v>0.97265904329510988</v>
       </c>
       <c r="C33" s="26">
-        <f>[3]Data!M40*100</f>
+        <f>[1]Data!M40*100</f>
         <v>-0.13999999999999999</v>
       </c>
       <c r="F33" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="34">
-        <f>'[3]Rolling 36M Periods'!G6*100</f>
+        <f>'[1]Rolling 36M Periods'!G6*100</f>
         <v>11.233401200793985</v>
       </c>
       <c r="H33" s="35">
-        <f>'[3]Rolling 36M Periods'!H6*100</f>
+        <f>'[1]Rolling 36M Periods'!H6*100</f>
         <v>10.516145294162252</v>
       </c>
     </row>
@@ -24388,22 +24389,22 @@
         <v>2016</v>
       </c>
       <c r="B34" s="49">
-        <f>[3]Data!L41*100</f>
+        <f>[1]Data!L41*100</f>
         <v>5.1679014752407992</v>
       </c>
       <c r="C34" s="50">
-        <f>[3]Data!M41*100</f>
-        <v>7.6151940143389885</v>
+        <f>[1]Data!M41*100</f>
+        <v>5.2625287629815887</v>
       </c>
       <c r="F34" s="44" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="34">
-        <f>'[3]Rolling 36M Periods'!G7*100</f>
+        <f>'[1]Rolling 36M Periods'!G7*100</f>
         <v>98.009950248756212</v>
       </c>
       <c r="H34" s="35">
-        <f>'[3]Rolling 36M Periods'!H7*100</f>
+        <f>'[1]Rolling 36M Periods'!H7*100</f>
         <v>89.054726368159209</v>
       </c>
     </row>
@@ -24412,22 +24413,22 @@
         <v>2017</v>
       </c>
       <c r="B35" s="49">
-        <f>[3]Data!L42*100</f>
+        <f>[1]Data!L42*100</f>
         <v>11.283136543336148</v>
       </c>
       <c r="C35" s="50">
-        <f>[3]Data!M42*100</f>
-        <v>10.076216854801135</v>
+        <f>[1]Data!M42*100</f>
+        <v>12.614916155879508</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="34">
-        <f>'[3]Rolling 36M Periods'!G8*100</f>
+        <f>'[1]Rolling 36M Periods'!G8*100</f>
         <v>21.516974598940237</v>
       </c>
       <c r="H35" s="35">
-        <f>'[3]Rolling 36M Periods'!H8*100</f>
+        <f>'[1]Rolling 36M Periods'!H8*100</f>
         <v>19.041209982931129</v>
       </c>
     </row>
@@ -24436,22 +24437,22 @@
         <v>2018</v>
       </c>
       <c r="B36" s="49">
-        <f>[3]Data!L43*100</f>
+        <f>[1]Data!L43*100</f>
         <v>-2.0750190304852256</v>
       </c>
       <c r="C36" s="50">
-        <f>[3]Data!M43*100</f>
-        <v>-4.2157616726330671</v>
+        <f>[1]Data!M43*100</f>
+        <v>-3.5733946962244856</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="34">
-        <f>'[3]Rolling 36M Periods'!G9*100</f>
+        <f>'[1]Rolling 36M Periods'!G9*100</f>
         <v>1.9900497512437811</v>
       </c>
       <c r="H36" s="35">
-        <f>'[3]Rolling 36M Periods'!H9*100</f>
+        <f>'[1]Rolling 36M Periods'!H9*100</f>
         <v>10.945273631840797</v>
       </c>
     </row>
@@ -24460,22 +24461,22 @@
         <v>2019</v>
       </c>
       <c r="B37" s="49">
-        <f>[3]Data!L44*100</f>
+        <f>[1]Data!L44*100</f>
         <v>11.994097654881021</v>
       </c>
       <c r="C37" s="50">
-        <f>[3]Data!M44*100</f>
-        <v>13.2083695476495</v>
+        <f>[1]Data!M44*100</f>
+        <v>15.85</v>
       </c>
       <c r="F37" s="45" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="46">
-        <f>'[3]Rolling 36M Periods'!G10*100</f>
+        <f>'[1]Rolling 36M Periods'!G10*100</f>
         <v>-1.1310127060203596</v>
       </c>
       <c r="H37" s="47">
-        <f>'[3]Rolling 36M Periods'!H10*100</f>
+        <f>'[1]Rolling 36M Periods'!H10*100</f>
         <v>-5.2633119739329635</v>
       </c>
     </row>
@@ -24484,12 +24485,12 @@
         <v>2020</v>
       </c>
       <c r="B38" s="49">
-        <f>[3]Data!L45*100</f>
+        <f>[1]Data!L45*100</f>
         <v>4.8617896424043128</v>
       </c>
       <c r="C38" s="50">
-        <f>[3]Data!M45*100</f>
-        <v>3.0700000000000003</v>
+        <f>[1]Data!M45*100</f>
+        <v>10.981351722832056</v>
       </c>
       <c r="D38" s="57" t="s">
         <v>59</v>
@@ -24500,12 +24501,12 @@
         <v>64</v>
       </c>
       <c r="B39" s="53">
-        <f>[3]Data!L46*100</f>
+        <f>[1]Data!L46*100</f>
         <v>5.0725442038000113</v>
       </c>
       <c r="C39" s="60">
-        <f>[3]Data!M46*100</f>
-        <v>4.4493497863999698</v>
+        <f>[1]Data!M46*100</f>
+        <v>2.31</v>
       </c>
     </row>
   </sheetData>
@@ -24561,7 +24562,7 @@
       <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="63" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
@@ -24570,7 +24571,7 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="63" t="s">
         <v>65</v>
       </c>
       <c r="G2" t="s">
@@ -24776,27 +24777,27 @@
       <c r="O6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="66">
+      <c r="P6" s="64">
         <f>K4*100</f>
         <v>4.4493497863999698</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="Q6" s="64">
         <f>K5*100</f>
         <v>25.483631091260396</v>
       </c>
-      <c r="R6" s="66">
+      <c r="R6" s="64">
         <f>K7*100</f>
         <v>5.7771408245477218</v>
       </c>
-      <c r="S6" s="66">
+      <c r="S6" s="64">
         <f>K9*100</f>
         <v>6.4524214189570772</v>
       </c>
-      <c r="T6" s="66">
+      <c r="T6" s="64">
         <f>K11*100</f>
         <v>4.9563676515188781</v>
       </c>
-      <c r="U6" s="66">
+      <c r="U6" s="64">
         <f>K13*100</f>
         <v>4.4401197769886158</v>
       </c>
@@ -26317,7 +26318,7 @@
         <v>19283.9849019912</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" ref="L43:M47" si="6">J43/J42-1</f>
+        <f t="shared" ref="L43:M46" si="6">J43/J42-1</f>
         <v>-2.0750190304852256E-2</v>
       </c>
       <c r="M43" s="3">
@@ -36161,10 +36162,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39459,6 +39460,48 @@
       <c r="C235" s="5">
         <f>Data!G236</f>
         <v>25642.952248575675</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <f>Data!A237</f>
+        <v>44227</v>
+      </c>
+      <c r="B236" s="5">
+        <f>Data!E237</f>
+        <v>31227.744451573817</v>
+      </c>
+      <c r="C236" s="5">
+        <f>Data!G237</f>
+        <v>25591.666344078523</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <f>Data!A238</f>
+        <v>44255</v>
+      </c>
+      <c r="B237" s="5">
+        <f>Data!E238</f>
+        <v>31686.79229501195</v>
+      </c>
+      <c r="C237" s="5">
+        <f>Data!G238</f>
+        <v>25893.648006938649</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <f>Data!A239</f>
+        <v>44286</v>
+      </c>
+      <c r="B238" s="5">
+        <f>Data!E239</f>
+        <v>32808.504742255376</v>
+      </c>
+      <c r="C238" s="5">
+        <f>Data!G239</f>
+        <v>26232.854795829549</v>
       </c>
     </row>
   </sheetData>
@@ -39661,7 +39704,7 @@
       </c>
       <c r="C11" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C29</f>
-        <v>-2.3244230779025377</v>
+        <v>-2.4015032054443997</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -39678,7 +39721,7 @@
       </c>
       <c r="C12" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C30</f>
-        <v>10.280329820566415</v>
+        <v>10.443326863395752</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -39746,7 +39789,7 @@
       </c>
       <c r="C16" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C34</f>
-        <v>7.6151940143389885</v>
+        <v>5.2625287629815887</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -39763,7 +39806,7 @@
       </c>
       <c r="C17" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C35</f>
-        <v>10.076216854801135</v>
+        <v>12.614916155879508</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -39780,7 +39823,7 @@
       </c>
       <c r="C18" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C36</f>
-        <v>-4.2157616726330671</v>
+        <v>-3.5733946962244856</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -39797,7 +39840,7 @@
       </c>
       <c r="C19" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C37</f>
-        <v>13.2083695476495</v>
+        <v>15.85</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -39813,7 +39856,7 @@
       </c>
       <c r="C20" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C38</f>
-        <v>3.0700000000000003</v>
+        <v>10.981351722832056</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -39829,7 +39872,7 @@
       </c>
       <c r="C21" s="5">
         <f>'INSTITUTIONAL FACT SHEET'!C39</f>
-        <v>4.4493497863999698</v>
+        <v>2.31</v>
       </c>
       <c r="D21">
         <v>20</v>
